--- a/templates/Architecture_Review_Checklists.xlsx
+++ b/templates/Architecture_Review_Checklists.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,10 +16,12 @@
     <sheet name="Infrastructure" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Development" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="User Interface" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Batch Integrations" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Service Integrations" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Validation Values" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="References" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Reporting" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Batch Integrations" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Service Integrations" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Security" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Validation Values" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="References" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="360">
   <si>
     <t xml:space="preserve">Summary</t>
   </si>
@@ -232,7 +234,9 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">What design/infrastructure capabilities ensure High Availability of the solution?</t>
+    <t xml:space="preserve">What design/infrastructure capabilities ensure High Availability of the solution?
+What are the guaranteed hours of system availability?
+What the scheduled maintenance periods?</t>
   </si>
   <si>
     <t xml:space="preserve">Backup</t>
@@ -319,10 +323,14 @@
     <t xml:space="preserve">Exploitability</t>
   </si>
   <si>
+    <t xml:space="preserve">Vendor shall ensure that system integrity and data access is protected against cyber attacks and unauthorized access – and shall ensure that the design of the system has been reviewed against the Center for Internet Security CIS Controls for Effective Cyber Defense (Version 6.1) 
+And the CWE/SANS Top 25 Most Dangerous Software Errors</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extensibility</t>
   </si>
   <si>
-    <t xml:space="preserve">What mechanisms are available in the design of the solution to support extension  (vs. costly vendor-coordinated customization)</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Failure Management</t>
@@ -557,7 +565,7 @@
     <t xml:space="preserve">Data Model Diagram(s)</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Model Documents</t>
+    <t xml:space="preserve">Data Model Documentation</t>
   </si>
   <si>
     <t xml:space="preserve">API / Service Contract(s)</t>
@@ -596,23 +604,23 @@
     <t xml:space="preserve">What, if any, data export formats are supported?</t>
   </si>
   <si>
-    <t xml:space="preserve">What, if any, report file formats are supported?</t>
+    <t xml:space="preserve">What, if any, report file formats are supported (e.g. HTML, PDF, RTF, Word, Excel, etc.)?</t>
   </si>
   <si>
     <t xml:space="preserve">What database technologies are used in the back-end?</t>
   </si>
   <si>
-    <t xml:space="preserve">If locally installed on a device (laptop, mobile device, etc.), is the there a local data store / database mechanism?  
+    <t xml:space="preserve">If certain elements of the solution are locally installed on a device (laptop, mobile device, etc.), is the there a local data store / database mechanism?  
 If so, technology used?</t>
   </si>
   <si>
     <t xml:space="preserve">if locally installed on a device, and data is collected at the local device, how is data collected in aggregate for reporting at the enterprise level?</t>
   </si>
   <si>
-    <t xml:space="preserve">Available integration patterns/options?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred integration patterns/methods (e.g. File Transfer? Web Services? Message Queue? Other?) </t>
+    <t xml:space="preserve">Available integration patterns/options (e.g. Message Queues, APIs, Web Services, File Transfer, etc.)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred/Recommended integration patterns/methods (e.g. File Transfer? Web Services? Message Queue? Other?) </t>
   </si>
   <si>
     <t xml:space="preserve">Are there any (preferred, or possibly more efficient?) integration strategies that you would like to suggest or raise for discussion?</t>
@@ -813,6 +821,45 @@
     <t xml:space="preserve">Does the application design provide any user interface support to meet compliance with the Americans with Disabilities Act?</t>
   </si>
   <si>
+    <t xml:space="preserve">What out-of-the-box reports are provided with the solution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support development of custom reports?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What output formats are supported for report generation (e.g. Excel, Word, RTF, CSV, XML, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What report charting capabilities are supported (e.g. Bar, Line, Pie, Scatter Plot, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support unattended/automated generation on a recurring scheduled basis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support configuring a report for automated delivery (via email, upon generation) – either during an ad hoc or  scheduled report generation execution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support access to historical/archived reports via a unique web URL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support specifying access restriction permissions for a given report?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support defining l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the reporting solution leverage any third-party software? If so, please provide list of same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If third-party software is utilized to delivery reporting functionality, are those components included in the licensing/price of your solution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For any images that are generated by the report output, what image formats are available (i.e. PNG, GIF, JPG, SVG, BMP, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the reporting capability web based – or does it require installation of desktop software?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batch</t>
   </si>
   <si>
@@ -882,35 +929,17 @@
     <t xml:space="preserve">File Format</t>
   </si>
   <si>
-    <t xml:space="preserve">Supported file formats (e.g. fixed-length, CSV, XML, JSON, Binary Encoding, etc)?</t>
+    <t xml:space="preserve">Supported file formats (e.g. fixed-length, CSV, XML, EDI, JSON, Binary Encoding, etc)?</t>
   </si>
   <si>
     <t xml:space="preserve">Is there a Required or Preferred file format?</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the file name format?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>If fixed file name format, how do you handle potential over-write conditions (e.g. multiple batches during a 24 hour period)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Does the file name format provide safety against over-writing (e.g. unique, to include a sequential discriminator of some kind, such as a time-date stamp)?</t>
-    </r>
+    <t xml:space="preserve">What is the file naming convention format?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If fixed file name format (e.g. “data.csv”), how do you handle potential over-write conditions (e.g. multiple batches during a 24 hour period)
+Does the file name format provide safety against over-writing (e.g. unique, to include a sequential discriminator of some kind, such as a time-date stamp)?</t>
   </si>
   <si>
     <t xml:space="preserve">Are there any restrictions or limits on number of records delivered in a single batch file (e.g. batch must not contain more than [X] records)?</t>
@@ -919,7 +948,7 @@
     <t xml:space="preserve">FTP</t>
   </si>
   <si>
-    <t xml:space="preserve">What software is available to provide Secure FTP transfers?</t>
+    <t xml:space="preserve">What software is available to provide Secure FTP (SFTP) transfers?</t>
   </si>
   <si>
     <t xml:space="preserve">Is there an FTP server instance available (for receiving files)</t>
@@ -988,10 +1017,64 @@
     <t xml:space="preserve">Is data encrypted in-transit (e.g. HTTPS/TLS)?</t>
   </si>
   <si>
-    <t xml:space="preserve">What Web Service Authentication/Authorization mechanisms are supported (e.g. two-way TLS, Basic Authentication via User ID/Password, Integration with SSO, Integration with ActiveDirectory, other)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If vendor will call our Web Service, what retry mechanisms does the vendor support (e.g. if our Web Service is not available or times-out)</t>
+    <t xml:space="preserve">What Web Service Authentication/Authorization mechanisms are supported (e.g. two-way Certs/TLS, Basic Authentication via User ID/Password, Integration with SSO, Integration with ActiveDirectory, other)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If vendor will call our Web Service, what retry mechanisms does the vendor solution support (e.g. if our Web Service is not available or times-out)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support integration with Identity Provider Single-Sign-On (SSO) solutions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What SSO solution providers is your solution certified to work with?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What SSO capabilities are supported (e.g. (OpenID, Oauth 2.0, OpenSSO, SAML 2.0, JSON Web Token, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support a SAML 2.0 Identity Provider flow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support a SAML 2.0 Service Provider flow?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support an internal User ID / Password authentication mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What User Roles are defined/supported (out-of-the-box)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can additional User Roles be defined?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support defining delegation authority?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution support defining fine-grain field-level CRUD permissions, by User Role?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intrusion Detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How does the system monitor for unauthorized access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What security logging is performed by the solution?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does the solution record event information related to User Data Modification Activity?</t>
   </si>
   <si>
     <t xml:space="preserve">None</t>
@@ -1030,13 +1113,13 @@
     <t xml:space="preserve">RESTful Web Services</t>
   </si>
   <si>
-    <t xml:space="preserve">http://en.wikipedia.org/wiki/Representational_state_transfer</t>
+    <t xml:space="preserve">http://en.wikipedia.org/wiki/Representational_state_transfer </t>
   </si>
   <si>
     <t xml:space="preserve">http://www.restapitutorial.com/lessons/httpmethods.html</t>
   </si>
   <si>
-    <t xml:space="preserve">http://restcookbook.com/</t>
+    <t xml:space="preserve">http://restcookbook.com/ </t>
   </si>
   <si>
     <t xml:space="preserve">http://restcookbook.com/HTTP%20Methods/patch/ </t>
@@ -1046,6 +1129,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.pcisecuritystandards.org/pci_security/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Sign-On (SSO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Single_sign-on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/List_of_single_sign-on_implementations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Identity_management </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/SAML-based_products_and_services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Security_Assertion_Markup_Language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/SAML_2.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/Identity_provider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://en.wikipedia.org/wiki/OAuth </t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1104,12 +1214,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1117,7 +1221,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1134,6 +1238,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1194,7 +1304,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1239,19 +1349,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1259,16 +1369,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1279,80 +1381,136 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1435,15 +1593,15 @@
   </sheetPr>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.969387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="97.0867346938775"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="100.433673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1725,25 +1883,25 @@
       <c r="B46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="6"/>
@@ -1770,293 +1928,415 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="19.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="66.7397959183674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="39.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.4744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="72.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="16" t="n">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="16" t="n">
+      <c r="D2" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <f aca="false">SUM(C2+1)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="D3" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <f aca="false">SUM(C3+1)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="D4" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <f aca="false">SUM(C4+1)</f>
         <v>4</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="16" t="n">
+      <c r="C6" s="11" t="n">
         <f aca="false">SUM(C5+1)</f>
         <v>5</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="16" t="n">
+      <c r="D6" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <f aca="false">SUM(C6+1)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="16" t="n">
+      <c r="D7" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="11" t="n">
         <f aca="false">SUM(C7+1)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="16" t="n">
+      <c r="D8" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="11" t="n">
         <f aca="false">SUM(C8+1)</f>
         <v>8</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="16" t="n">
+      <c r="D9" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C10" s="11" t="n">
         <f aca="false">SUM(C9+1)</f>
         <v>9</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="16" t="n">
+      <c r="D10" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="11" t="n">
         <f aca="false">SUM(C10+1)</f>
         <v>10</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="16" t="n">
+      <c r="D11" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="11" t="n">
         <f aca="false">SUM(C11+1)</f>
         <v>11</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
-      <c r="B13" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="16" t="n">
+      <c r="D12" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="11" t="n">
         <f aca="false">SUM(C12+1)</f>
         <v>12</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="16" t="n">
+      <c r="D13" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <f aca="false">SUM(C13+1)</f>
         <v>13</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="16" t="n">
+      <c r="D14" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <f aca="false">SUM(C14+1)</f>
         <v>14</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" s="16" t="n">
+      <c r="D15" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <f aca="false">SUM(C15+1)</f>
         <v>15</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="16" t="n">
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <f aca="false">SUM(C16+1)</f>
         <v>16</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="16" t="n">
+      <c r="D17" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="11" t="n">
         <f aca="false">SUM(C17+1)</f>
         <v>17</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>300</v>
+      <c r="D18" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <f aca="false">SUM(C18+1)</f>
+        <v>18</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <f aca="false">SUM(C19+1)</f>
+        <v>19</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="11" t="n">
+        <f aca="false">SUM(C20+1)</f>
+        <v>20</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <f aca="false">SUM(C21+1)</f>
+        <v>21</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="11" t="n">
+        <f aca="false">SUM(C22+1)</f>
+        <v>22</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <f aca="false">SUM(C23+1)</f>
+        <v>23</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <f aca="false">SUM(C24+1)</f>
+        <v>24</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <f aca="false">SUM(C25+1)</f>
+        <v>25</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2075,49 +2355,293 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.0663265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="69.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="10" t="s">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <f aca="false">SUM(C2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <f aca="false">SUM(C3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <f aca="false">SUM(C4+1)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <f aca="false">SUM(C5+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <f aca="false">SUM(C6+1)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="43" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <f aca="false">SUM(C7+1)</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <f aca="false">SUM(C8+1)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="43" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <f aca="false">SUM(C9+1)</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <f aca="false">SUM(C10+1)</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <f aca="false">SUM(C11+1)</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <f aca="false">SUM(C12+1)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <f aca="false">SUM(C13+1)</f>
+        <v>13</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <f aca="false">SUM(C14+1)</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <f aca="false">SUM(C15+1)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <f aca="false">SUM(C16+1)</f>
+        <v>16</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <f aca="false">SUM(C17+1)</f>
+        <v>17</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2136,86 +2660,512 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="74.0816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" s="38" customFormat="true" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <f aca="false">SUM(C2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+    </row>
+    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <f aca="false">SUM(C3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <f aca="false">SUM(C4+1)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <f aca="false">SUM(C5+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <f aca="false">SUM(C6+1)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <f aca="false">SUM(C7+1)</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <f aca="false">SUM(C8+1)</f>
+        <v>8</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <f aca="false">SUM(C9+1)</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C11" s="11" t="n">
+        <f aca="false">SUM(C10+1)</f>
+        <v>10</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <f aca="false">SUM(C11+1)</f>
+        <v>11</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="11" t="n">
+        <f aca="false">SUM(C12+1)</f>
+        <v>12</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <f aca="false">SUM(C13+1)</f>
+        <v>13</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="11" t="n">
+        <f aca="false">SUM(C14+1)</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <f aca="false">SUM(C15+1)</f>
+        <v>15</v>
+      </c>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="11" t="n">
+        <f aca="false">SUM(C16+1)</f>
+        <v>16</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <f aca="false">SUM(C17+1)</f>
+        <v>17</v>
+      </c>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="11" t="n">
+        <f aca="false">SUM(C18+1)</f>
+        <v>18</v>
+      </c>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <f aca="false">SUM(C19+1)</f>
+        <v>19</v>
+      </c>
+      <c r="D20" s="22"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="88.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>305</v>
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>306</v>
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>307</v>
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>318</v>
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="91.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.85714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="46" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="47" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="48" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="48"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="50"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="51" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="50" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="50" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2225,9 +3175,19 @@
     <hyperlink ref="A5" r:id="rId3" display="Techniques for WCAG 2.0"/>
     <hyperlink ref="A6" r:id="rId4" display="Web Content Accessibility Guidelines (WCAG) 2.0"/>
     <hyperlink ref="A7" r:id="rId5" display="WCAG 2 FAQ"/>
-    <hyperlink ref="A10" r:id="rId6" display="http://www.restapitutorial.com/lessons/httpmethods.html"/>
-    <hyperlink ref="A12" r:id="rId7" display="http://restcookbook.com/HTTP%20Methods/patch/ "/>
-    <hyperlink ref="A14" r:id="rId8" display="https://www.pcisecuritystandards.org/pci_security/"/>
+    <hyperlink ref="A10" r:id="rId6" display="http://en.wikipedia.org/wiki/Representational_state_transfer "/>
+    <hyperlink ref="A11" r:id="rId7" display="http://www.restapitutorial.com/lessons/httpmethods.html"/>
+    <hyperlink ref="A12" r:id="rId8" display="http://restcookbook.com/ "/>
+    <hyperlink ref="A13" r:id="rId9" display="http://restcookbook.com/HTTP%20Methods/patch/ "/>
+    <hyperlink ref="A16" r:id="rId10" display="https://www.pcisecuritystandards.org/pci_security/ "/>
+    <hyperlink ref="A19" r:id="rId11" display="https://en.wikipedia.org/wiki/Single_sign-on "/>
+    <hyperlink ref="A20" r:id="rId12" display="https://en.wikipedia.org/wiki/List_of_single_sign-on_implementations "/>
+    <hyperlink ref="A21" r:id="rId13" display="https://en.wikipedia.org/wiki/Identity_management "/>
+    <hyperlink ref="A22" r:id="rId14" display="https://en.wikipedia.org/wiki/SAML-based_products_and_services "/>
+    <hyperlink ref="A23" r:id="rId15" display="https://en.wikipedia.org/wiki/Security_Assertion_Markup_Language "/>
+    <hyperlink ref="A24" r:id="rId16" display="https://en.wikipedia.org/wiki/SAML_2.0 "/>
+    <hyperlink ref="A25" r:id="rId17" display="https://en.wikipedia.org/wiki/Identity_provider "/>
+    <hyperlink ref="A26" r:id="rId18" display="https://en.wikipedia.org/wiki/OAuth "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2244,20 +3204,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="67.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
@@ -2265,133 +3225,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="10"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="8" s="4" customFormat="true" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="0"/>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16"/>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16"/>
-      <c r="B20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16"/>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16"/>
-      <c r="B28" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16"/>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16"/>
-      <c r="B31" s="10"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16"/>
-      <c r="B32" s="10"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16"/>
-      <c r="B33" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2411,714 +3275,800 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="10.1530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="8.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="66.7397959183674"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="39.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.3673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="34.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="69.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+    <row r="2" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="16" t="n">
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="11" t="n">
         <f aca="false">SUM(B2+1)</f>
         <v>2</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+    </row>
+    <row r="4" s="28" customFormat="true" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="24" t="n">
         <f aca="false">SUM(B3+1)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="16" t="n">
+      <c r="B5" s="11" t="n">
         <f aca="false">SUM(B4+1)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+    </row>
+    <row r="6" s="28" customFormat="true" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="16" t="n">
+      <c r="B6" s="24" t="n">
         <f aca="false">SUM(B5+1)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="16" t="n">
+      <c r="B7" s="11" t="n">
         <f aca="false">SUM(B6+1)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="16" t="n">
+      <c r="B8" s="11" t="n">
         <f aca="false">SUM(B7+1)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+    </row>
+    <row r="9" s="28" customFormat="true" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="16" t="n">
+      <c r="B9" s="24" t="n">
         <f aca="false">SUM(B8+1)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="16" t="n">
+      <c r="B10" s="11" t="n">
         <f aca="false">SUM(B9+1)</f>
         <v>9</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="22" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="16" t="n">
+      <c r="B11" s="11" t="n">
         <f aca="false">SUM(B10+1)</f>
         <v>10</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="129.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" s="28" customFormat="true" ht="122.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="24" t="n">
         <f aca="false">SUM(B11+1)</f>
         <v>11</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="26" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="16" t="n">
+      <c r="B13" s="24" t="n">
         <f aca="false">SUM(B12+1)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="26" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="11" t="n">
         <f aca="false">SUM(B13+1)</f>
         <v>13</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="11" t="n">
         <f aca="false">SUM(B14+1)</f>
         <v>14</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="67.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="11" t="n">
         <f aca="false">SUM(B15+1)</f>
         <v>15</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="11" t="n">
         <f aca="false">SUM(B16+1)</f>
         <v>16</v>
       </c>
-      <c r="C17" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="11" t="n">
         <f aca="false">SUM(B17+1)</f>
         <v>17</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="D18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="11" t="n">
         <f aca="false">SUM(B18+1)</f>
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="11" t="n">
         <f aca="false">SUM(B19+1)</f>
         <v>19</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="11" t="n">
         <f aca="false">SUM(B20+1)</f>
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
+      <c r="D21" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="11" t="n">
         <f aca="false">SUM(B21+1)</f>
         <v>21</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
+      <c r="D22" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="11" t="n">
         <f aca="false">SUM(B22+1)</f>
         <v>22</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
+      <c r="D23" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="16" t="n">
+      <c r="B24" s="11" t="n">
         <f aca="false">SUM(B23+1)</f>
         <v>23</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="21" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
+      <c r="D24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="16" t="n">
+      <c r="B25" s="11" t="n">
         <f aca="false">SUM(B24+1)</f>
         <v>24</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
+      <c r="D25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="16" t="n">
+      <c r="B26" s="11" t="n">
         <f aca="false">SUM(B25+1)</f>
         <v>25</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="54" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
+      <c r="D26" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27" s="28" customFormat="true" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="16" t="n">
+      <c r="B27" s="24" t="n">
         <f aca="false">SUM(B26+1)</f>
         <v>26</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="25" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
+      <c r="D27" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="16" t="n">
+      <c r="B28" s="11" t="n">
         <f aca="false">SUM(B27+1)</f>
         <v>27</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="21" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
+      <c r="D28" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="16" t="n">
+      <c r="B29" s="11" t="n">
         <f aca="false">SUM(B28+1)</f>
         <v>28</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
+      <c r="D29" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="16" t="n">
+      <c r="B30" s="11" t="n">
         <f aca="false">SUM(B29+1)</f>
         <v>29</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
+      <c r="D30" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="16" t="n">
+      <c r="B31" s="11" t="n">
         <f aca="false">SUM(B30+1)</f>
         <v>30</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="21" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="D31" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="16" t="n">
+      <c r="B32" s="11" t="n">
         <f aca="false">SUM(B31+1)</f>
         <v>31</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="s">
+      <c r="D32" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="16" t="n">
+      <c r="B33" s="11" t="n">
         <f aca="false">SUM(B32+1)</f>
         <v>32</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="21" t="s">
         <v>122</v>
       </c>
+      <c r="D33" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="16" t="n">
+      <c r="B34" s="11" t="n">
         <f aca="false">SUM(B33+1)</f>
         <v>33</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
+      <c r="D34" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="16" t="n">
+      <c r="B35" s="11" t="n">
         <f aca="false">SUM(B34+1)</f>
         <v>34</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="21" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="s">
+      <c r="D35" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="0"/>
+      <c r="F35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="16" t="n">
+      <c r="B36" s="11" t="n">
         <f aca="false">SUM(B35+1)</f>
         <v>35</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D36" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="s">
+      <c r="D36" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+    </row>
+    <row r="37" s="28" customFormat="true" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="16" t="n">
+      <c r="B37" s="24" t="n">
         <f aca="false">SUM(B36+1)</f>
         <v>36</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="86.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
+      <c r="D37" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="16" t="n">
+      <c r="B38" s="11" t="n">
         <f aca="false">SUM(B37+1)</f>
         <v>37</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="21" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="s">
+      <c r="D38" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="16" t="n">
+      <c r="B39" s="11" t="n">
         <f aca="false">SUM(B38+1)</f>
         <v>38</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
+      <c r="D39" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" s="28" customFormat="true" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="16" t="n">
+      <c r="B40" s="24" t="n">
         <f aca="false">SUM(B39+1)</f>
         <v>39</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="29" t="s">
         <v>136</v>
       </c>
+      <c r="D40" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="16" t="n">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11" t="n">
         <f aca="false">SUM(B40+1)</f>
         <v>40</v>
       </c>
+      <c r="C41" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11" t="n">
+        <f aca="false">SUM(B41+1)</f>
+        <v>41</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="11" t="n">
+        <f aca="false">SUM(B42+1)</f>
+        <v>42</v>
+      </c>
       <c r="C43" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="16" t="s">
+      <c r="D43" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="16" t="n">
+      <c r="B44" s="11" t="n">
         <f aca="false">SUM(B43+1)</f>
-        <v>41</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="D44" s="22" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="16" t="n">
+      <c r="B45" s="11" t="n">
         <f aca="false">SUM(B44+1)</f>
-        <v>42</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="16" t="s">
+      <c r="D45" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="16" t="n">
+      <c r="B46" s="11" t="n">
         <f aca="false">SUM(B45+1)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="6" t="s">
         <v>148</v>
       </c>
+      <c r="D46" s="22" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="16" t="n">
+      <c r="B47" s="11" t="n">
         <f aca="false">SUM(B46+1)</f>
-        <v>44</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>150</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3171,137 +4121,137 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="24" width="46.219387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="43.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="47.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="44.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>152</v>
+      <c r="B2" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="n">
+      <c r="A3" s="11" t="n">
         <f aca="false">SUM(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>153</v>
+      <c r="B3" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+      <c r="A4" s="11" t="n">
         <f aca="false">SUM(A3+1)</f>
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>154</v>
+      <c r="B4" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="n">
+      <c r="A5" s="11" t="n">
         <f aca="false">SUM(A4+1)</f>
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>155</v>
+      <c r="B5" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="n">
+      <c r="A6" s="11" t="n">
         <f aca="false">SUM(A5+1)</f>
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>156</v>
+      <c r="B6" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="n">
+      <c r="A7" s="11" t="n">
         <f aca="false">SUM(A6+1)</f>
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>157</v>
+      <c r="B7" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="n">
+      <c r="A8" s="11" t="n">
         <f aca="false">SUM(A7+1)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>158</v>
+      <c r="B8" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="n">
+      <c r="A9" s="11" t="n">
         <f aca="false">SUM(A8+1)</f>
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>159</v>
+      <c r="B9" s="16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="n">
+      <c r="A10" s="11" t="n">
         <f aca="false">SUM(A9+1)</f>
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>160</v>
+      <c r="B10" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="n">
+      <c r="A11" s="11" t="n">
         <f aca="false">SUM(A10+1)</f>
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>161</v>
+      <c r="B11" s="16" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="n">
+      <c r="A12" s="11" t="n">
         <f aca="false">SUM(A11+1)</f>
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>162</v>
+      <c r="B12" s="16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="n">
+      <c r="A13" s="11" t="n">
         <f aca="false">SUM(A12+1)</f>
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>163</v>
+      <c r="B13" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3323,28 +4273,28 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="15.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="12.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="66.7397959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="43.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="32" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>58</v>
@@ -3353,197 +4303,197 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="26" t="n">
+    <row r="2" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="36" t="n">
         <f aca="false">SUM(B2+1)</f>
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="16" t="n">
+      <c r="A4" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="36" t="n">
         <f aca="false">SUM(B3+1)</f>
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="16" t="n">
+      <c r="A5" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="36" t="n">
         <f aca="false">SUM(B4+1)</f>
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="16" t="n">
+      <c r="A6" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="36" t="n">
         <f aca="false">SUM(B5+1)</f>
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="16" t="n">
+      <c r="A7" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="36" t="n">
         <f aca="false">SUM(B6+1)</f>
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="16" t="n">
+      <c r="A8" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="36" t="n">
         <f aca="false">SUM(B7+1)</f>
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="16" t="n">
+      <c r="A9" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="36" t="n">
         <f aca="false">SUM(B8+1)</f>
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B10" s="16" t="n">
+      <c r="A10" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="36" t="n">
         <f aca="false">SUM(B9+1)</f>
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="16" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="36" t="n">
         <f aca="false">SUM(B10+1)</f>
         <v>10</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="16" t="n">
+      <c r="A12" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="36" t="n">
         <f aca="false">SUM(B11+1)</f>
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="16" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="36" t="n">
         <f aca="false">SUM(B12+1)</f>
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B14" s="16" t="n">
+      <c r="A14" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="36" t="n">
         <f aca="false">SUM(B13+1)</f>
         <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="16" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="36" t="n">
         <f aca="false">SUM(B14+1)</f>
         <v>14</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="16" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="36" t="n">
         <f aca="false">SUM(B15+1)</f>
         <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="16" t="n">
+      <c r="A17" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="36" t="n">
         <f aca="false">SUM(B16+1)</f>
         <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3565,32 +4515,32 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="11.015306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="71.7091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="39.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="74.0816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>164</v>
+      <c r="D1" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>58</v>
@@ -3599,260 +4549,260 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="29" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="26" t="s">
+    <row r="2" s="38" customFormat="true" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="26" t="n">
+      <c r="B2" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="D2" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="16" t="n">
+      <c r="A3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="36" t="n">
         <f aca="false">SUM(C2+1)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="36" t="n">
         <f aca="false">SUM(C3+1)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>188</v>
+      <c r="D4" s="39" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="A5" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="36" t="n">
         <f aca="false">SUM(C4+1)</f>
         <v>4</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>189</v>
+      <c r="D5" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="16" t="n">
+      <c r="A6" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="36" t="n">
         <f aca="false">SUM(C5+1)</f>
         <v>5</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>190</v>
+      <c r="D6" s="39" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="16" t="n">
+      <c r="A7" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="36" t="n">
         <f aca="false">SUM(C6+1)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>191</v>
+      <c r="D7" s="39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="16" t="n">
+      <c r="A8" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="36" t="n">
         <f aca="false">SUM(C7+1)</f>
         <v>7</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>192</v>
+      <c r="D8" s="39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="16" t="n">
+      <c r="A9" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="36" t="n">
         <f aca="false">SUM(C8+1)</f>
         <v>8</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>187</v>
+      <c r="D9" s="39" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" s="16" t="n">
+      <c r="A10" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="36" t="n">
         <f aca="false">SUM(C9+1)</f>
         <v>9</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="36" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="36" t="n">
         <f aca="false">SUM(C10+1)</f>
         <v>10</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>188</v>
+      <c r="D11" s="39" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="16" t="n">
+      <c r="A12" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="36" t="n">
         <f aca="false">SUM(C11+1)</f>
         <v>11</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>189</v>
+      <c r="D12" s="39" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="16" t="n">
+      <c r="A13" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="36" t="n">
         <f aca="false">SUM(C12+1)</f>
         <v>12</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>190</v>
+      <c r="D13" s="39" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="16" t="n">
+      <c r="A14" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="36" t="n">
         <f aca="false">SUM(C13+1)</f>
         <v>13</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>191</v>
+      <c r="D14" s="39" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="16" t="n">
+      <c r="A15" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="36" t="n">
         <f aca="false">SUM(C14+1)</f>
         <v>14</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>192</v>
+      <c r="D15" s="39" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="36" t="n">
         <f aca="false">SUM(C15+1)</f>
         <v>15</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>195</v>
+      <c r="D16" s="39" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="36" t="n">
         <f aca="false">SUM(C16+1)</f>
         <v>16</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>196</v>
+      <c r="D17" s="39" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="36" t="n">
         <f aca="false">SUM(C17+1)</f>
         <v>17</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>197</v>
+      <c r="D18" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3874,440 +4824,440 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="66.7397959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="43.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="16" t="n">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="11" t="n">
         <f aca="false">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="16" t="n">
+      <c r="C3" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <f aca="false">SUM(B3+1)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="16" t="n">
+      <c r="C4" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <f aca="false">SUM(B4+1)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="16" t="n">
+      <c r="C5" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <f aca="false">SUM(B5+1)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="16" t="n">
+      <c r="C6" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <f aca="false">SUM(B6+1)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="16" t="n">
+      <c r="C7" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <f aca="false">SUM(B7+1)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="16" t="n">
+      <c r="C8" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <f aca="false">SUM(B8+1)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="16" t="n">
+      <c r="C9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="11" t="n">
         <f aca="false">SUM(B9+1)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="16" t="n">
+      <c r="C10" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <f aca="false">SUM(B10+1)</f>
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="16" t="n">
+      <c r="C11" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <f aca="false">SUM(B11+1)</f>
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="16" t="n">
+      <c r="C12" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B13" s="11" t="n">
         <f aca="false">SUM(B12+1)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="16" t="n">
+      <c r="C13" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <f aca="false">SUM(B13+1)</f>
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="16" t="n">
+      <c r="C14" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <f aca="false">SUM(B14+1)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B16" s="16" t="n">
+      <c r="C15" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <f aca="false">SUM(B15+1)</f>
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B17" s="16" t="n">
+      <c r="C16" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <f aca="false">SUM(B16+1)</f>
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="16" t="n">
+      <c r="C17" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <f aca="false">SUM(B17+1)</f>
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="16" t="n">
+      <c r="C18" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="11" t="n">
         <f aca="false">SUM(B18+1)</f>
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="16" t="n">
+      <c r="C19" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="11" t="n">
         <f aca="false">SUM(B19+1)</f>
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="16" t="n">
+      <c r="C20" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="11" t="n">
         <f aca="false">SUM(B20+1)</f>
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="16" t="n">
+      <c r="C21" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="11" t="n">
         <f aca="false">SUM(B21+1)</f>
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B23" s="16" t="n">
+      <c r="C22" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B23" s="11" t="n">
         <f aca="false">SUM(B22+1)</f>
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="16" t="n">
+      <c r="C23" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="11" t="n">
         <f aca="false">SUM(B23+1)</f>
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="16" t="n">
+      <c r="C24" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="11" t="n">
         <f aca="false">SUM(B24+1)</f>
         <v>24</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B26" s="16" t="n">
+      <c r="C25" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="11" t="n">
         <f aca="false">SUM(B25+1)</f>
         <v>25</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="16" t="n">
+      <c r="C26" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="11" t="n">
         <f aca="false">SUM(B26+1)</f>
         <v>26</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="16" t="n">
+      <c r="C27" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="11" t="n">
         <f aca="false">SUM(B27+1)</f>
         <v>27</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B29" s="16" t="n">
+      <c r="C28" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="11" t="n">
         <f aca="false">SUM(B28+1)</f>
         <v>28</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="16" t="n">
+      <c r="C29" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B30" s="11" t="n">
         <f aca="false">SUM(B29+1)</f>
         <v>29</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="C30" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4327,250 +5277,250 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="10.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="66.7397959183674"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="43.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="16" t="n">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="16" t="n">
+      <c r="B3" s="11" t="n">
         <f aca="false">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="16" t="n">
+      <c r="C3" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <f aca="false">SUM(B3+1)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="16" t="n">
+      <c r="C4" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="41.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <f aca="false">SUM(B4+1)</f>
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B6" s="16" t="n">
+      <c r="C5" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <f aca="false">SUM(B5+1)</f>
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B7" s="16" t="n">
+      <c r="C6" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <f aca="false">SUM(B6+1)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="16" t="n">
+      <c r="C7" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <f aca="false">SUM(B7+1)</f>
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>235</v>
+      <c r="C8" s="22" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B9" s="16" t="n">
+      <c r="A9" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <f aca="false">SUM(B8+1)</f>
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>236</v>
+      <c r="C9" s="22" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="16" t="n">
+      <c r="A10" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="11" t="n">
         <f aca="false">SUM(B9+1)</f>
         <v>9</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" s="16" t="n">
+      <c r="C10" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="11" t="n">
         <f aca="false">SUM(B10+1)</f>
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="16" t="n">
+      <c r="C11" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="11" t="n">
         <f aca="false">SUM(B11+1)</f>
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B13" s="16" t="n">
+      <c r="C12" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="11" t="n">
         <f aca="false">SUM(B12+1)</f>
         <v>12</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="16" t="n">
+      <c r="C13" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <f aca="false">SUM(B13+1)</f>
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B15" s="16" t="n">
+      <c r="C14" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <f aca="false">SUM(B14+1)</f>
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="16" t="n">
+      <c r="C15" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <f aca="false">SUM(B15+1)</f>
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="16" t="n">
+      <c r="C16" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <f aca="false">SUM(B16+1)</f>
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B18" s="16" t="n">
+      <c r="C17" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <f aca="false">SUM(B17+1)</f>
         <v>17</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="16" t="n">
+      <c r="C18" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="11" t="n">
         <f aca="false">SUM(B18+1)</f>
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>246</v>
+      <c r="C19" s="22" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4589,424 +5539,219 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="18" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="18" width="16.6326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="20" width="70.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="20" width="47.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="20" width="39.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <f aca="false">SUM(B2+1)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="16" t="s">
+    <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <f aca="false">SUM(B3+1)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="16" t="n">
-        <f aca="false">SUM(C2+1)</f>
-        <v>2</v>
-      </c>
-      <c r="D3" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <f aca="false">SUM(B4+1)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="16" t="s">
+    <row r="6" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <f aca="false">SUM(B5+1)</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="C4" s="16" t="n">
-        <f aca="false">SUM(C3+1)</f>
-        <v>3</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="40.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="11" t="n">
+        <f aca="false">SUM(B6+1)</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="16" t="n">
-        <f aca="false">SUM(C4+1)</f>
-        <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="8" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <f aca="false">SUM(B7+1)</f>
+        <v>7</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <f aca="false">SUM(C5+1)</f>
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="11" t="n">
+        <f aca="false">SUM(B8+1)</f>
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <f aca="false">SUM(C6+1)</f>
-        <v>6</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    <row r="10" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <f aca="false">SUM(B9+1)</f>
+        <v>9</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B8" s="16" t="s">
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="11" t="n">
+        <f aca="false">SUM(B10+1)</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="C8" s="16" t="n">
-        <f aca="false">SUM(C7+1)</f>
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <f aca="false">SUM(B11+1)</f>
+        <v>11</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="16" t="n">
-        <f aca="false">SUM(C8+1)</f>
-        <v>8</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="13" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="C10" s="16" t="n">
-        <f aca="false">SUM(C9+1)</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    <row r="14" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C11" s="16" t="n">
-        <f aca="false">SUM(C10+1)</f>
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="16" t="n">
-        <f aca="false">SUM(C11+1)</f>
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C13" s="16" t="n">
-        <f aca="false">SUM(C12+1)</f>
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="16" t="n">
-        <f aca="false">SUM(C13+1)</f>
-        <v>13</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C15" s="16" t="n">
-        <f aca="false">SUM(C14+1)</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C16" s="16" t="n">
-        <f aca="false">SUM(C15+1)</f>
-        <v>15</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="16" t="n">
-        <f aca="false">SUM(C16+1)</f>
-        <v>16</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="16" t="n">
-        <f aca="false">SUM(C17+1)</f>
-        <v>17</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="16" t="n">
-        <f aca="false">SUM(C18+1)</f>
-        <v>18</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20" s="16" t="n">
-        <f aca="false">SUM(C19+1)</f>
-        <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="68.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C21" s="16" t="n">
-        <f aca="false">SUM(C20+1)</f>
-        <v>20</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="C22" s="16" t="n">
-        <f aca="false">SUM(C21+1)</f>
-        <v>21</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C23" s="16" t="n">
-        <f aca="false">SUM(C22+1)</f>
-        <v>22</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24" s="16" t="n">
-        <f aca="false">SUM(C23+1)</f>
-        <v>23</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="16" t="n">
-        <f aca="false">SUM(C24+1)</f>
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="C26" s="16" t="n">
-        <f aca="false">SUM(C25+1)</f>
-        <v>25</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>280</v>
-      </c>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="C17" s="22"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="C18" s="22"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="41"/>
+      <c r="C19" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/templates/Architecture_Review_Checklists.xlsx
+++ b/templates/Architecture_Review_Checklists.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="362">
   <si>
     <t xml:space="preserve">Summary</t>
   </si>
@@ -1156,6 +1156,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://en.wikipedia.org/wiki/OAuth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Experience (UX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.nngroup.com/articles/response-times-3-important-limits/ </t>
   </si>
 </sst>
 </file>
@@ -1599,9 +1605,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="100.433673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.3724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="102.163265306122"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,13 +1941,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="72.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="17.6020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="10.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="74.0816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2363,13 +2367,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="9.39795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="69.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="13.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="20.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="41.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2668,13 +2671,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="74.0816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="75.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,9 +2981,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,16 +3033,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="91.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="93.4132653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3166,6 +3166,16 @@
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="50" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="50" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3188,6 +3198,7 @@
     <hyperlink ref="A24" r:id="rId16" display="https://en.wikipedia.org/wiki/SAML_2.0 "/>
     <hyperlink ref="A25" r:id="rId17" display="https://en.wikipedia.org/wiki/Identity_provider "/>
     <hyperlink ref="A26" r:id="rId18" display="https://en.wikipedia.org/wiki/OAuth "/>
+    <hyperlink ref="A29" r:id="rId19" display="https://www.nngroup.com/articles/response-times-3-important-limits/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3212,9 +3223,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="67.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="68.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3275,19 +3285,18 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="8.96428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="34.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="69.0102040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.07142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="17" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4126,11 +4135,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="9.39795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="47.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="44.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="48.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="45.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4278,12 +4286,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="12" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="12.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="45.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,13 +4527,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="74.0816326530612"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="16.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="19.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="17" width="75.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.6836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,12 +4835,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.39795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="45.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5283,12 +5288,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.39795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="45.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5547,12 +5551,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.39795918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="69.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="49.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="44.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="9.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="18" width="70.1938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="18" width="50.219387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="18" width="45.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/templates/Architecture_Review_Checklists.xlsx
+++ b/templates/Architecture_Review_Checklists.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\git\Consulting.Project.Tools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51321506-C20F-475D-BD00-C15261343FF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Impacted Areas" sheetId="2" r:id="rId2"/>
     <sheet name="NFRs" sheetId="3" r:id="rId3"/>
     <sheet name="Documentation" sheetId="4" r:id="rId4"/>
-    <sheet name="OPS" sheetId="17" r:id="rId5"/>
-    <sheet name="Architecture-Lite" sheetId="5" r:id="rId6"/>
-    <sheet name="Architecture" sheetId="6" r:id="rId7"/>
-    <sheet name="Infrastructure" sheetId="7" r:id="rId8"/>
-    <sheet name="DEV" sheetId="8" r:id="rId9"/>
-    <sheet name="UI" sheetId="9" r:id="rId10"/>
-    <sheet name="Reporting" sheetId="10" r:id="rId11"/>
-    <sheet name="Batch Integrations" sheetId="11" r:id="rId12"/>
-    <sheet name="Services" sheetId="12" r:id="rId13"/>
-    <sheet name="Security" sheetId="13" r:id="rId14"/>
-    <sheet name="Validation Values" sheetId="14" r:id="rId15"/>
-    <sheet name="References" sheetId="15" r:id="rId16"/>
+    <sheet name="OPS" sheetId="5" r:id="rId5"/>
+    <sheet name="Architecture-Lite" sheetId="6" r:id="rId6"/>
+    <sheet name="Architecture" sheetId="7" r:id="rId7"/>
+    <sheet name="Infrastructure" sheetId="8" r:id="rId8"/>
+    <sheet name="DEV" sheetId="9" r:id="rId9"/>
+    <sheet name="UI" sheetId="10" r:id="rId10"/>
+    <sheet name="Reporting" sheetId="11" r:id="rId11"/>
+    <sheet name="Batch Integrations" sheetId="12" r:id="rId12"/>
+    <sheet name="Services" sheetId="13" r:id="rId13"/>
+    <sheet name="Security" sheetId="14" r:id="rId14"/>
+    <sheet name="Validation Values" sheetId="15" r:id="rId15"/>
+    <sheet name="References" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="179017" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="426">
   <si>
     <t>Summary</t>
   </si>
@@ -141,15 +142,6 @@
   </si>
   <si>
     <t>Security Architect Phone</t>
-  </si>
-  <si>
-    <t>Application Architect Name</t>
-  </si>
-  <si>
-    <t>Application Architect Email</t>
-  </si>
-  <si>
-    <t>Application Architect Phone</t>
   </si>
   <si>
     <t>Coordination Notes</t>
@@ -583,6 +575,9 @@
     <t>Question</t>
   </si>
   <si>
+    <t>OPS</t>
+  </si>
+  <si>
     <t>Architecture</t>
   </si>
   <si>
@@ -1237,6 +1232,9 @@
     <t>WCAG 2 FAQ</t>
   </si>
   <si>
+    <t>W3.org Techniques and Failures for Web Content Accessibility Guidelines 2.0</t>
+  </si>
+  <si>
     <t>Section 508 of the U.S. Rehabilitation Act of 1973, as amended by the Workforce Investment Act of 1998.</t>
   </si>
   <si>
@@ -1318,6 +1316,12 @@
     <t xml:space="preserve">https://www.owasp.org </t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.sans.org/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sans.org/critical-security-controls/ </t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.sans.org/top25-software-errors/ </t>
   </si>
   <si>
@@ -1348,20 +1352,23 @@
     <t xml:space="preserve">https://security.googleblog.com/ </t>
   </si>
   <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sans.org/ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sans.org/critical-security-controls/ </t>
+    <t xml:space="preserve">https://www.smashingmagazine.com/2018/04/designing-accessibility-inclusion/ </t>
+  </si>
+  <si>
+    <t>Architect Name</t>
+  </si>
+  <si>
+    <t>Architect Email</t>
+  </si>
+  <si>
+    <t>Architect Phone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1400,13 +1407,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1542,6 +1542,101 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1551,42 +1646,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1595,6 +1654,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1607,76 +1669,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -2064,14 +2064,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625"/>
-    <col min="2" max="2" width="107.44140625" style="1"/>
+    <col min="1" max="1" width="31.109375"/>
+    <col min="2" max="2" width="109.33203125" style="1"/>
+    <col min="3" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2276,120 +2277,135 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>34</v>
+        <v>423</v>
       </c>
       <c r="B34" s="6"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
       <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="B36" s="6"/>
     </row>
     <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6"/>
     </row>
     <row r="41" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B43" s="6"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B50" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Required,Approved,Approved with Exception/Waiver,Approved with Restriction,Solution Requires Revision,Rejected,Withdrawn"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B46" xr:uid="{F146AF76-2C09-4FFD-92CC-34685CA5C4B3}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CB5BAADF-70F9-4157-8A90-2896DD110F93}">
+          <x14:formula1>
+            <xm:f>'Validation Values'!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B42</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
@@ -2398,243 +2414,244 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="11"/>
-    <col min="2" max="2" width="9.88671875" style="11"/>
-    <col min="3" max="3" width="73.77734375" style="17"/>
-    <col min="4" max="4" width="52.6640625" style="17"/>
-    <col min="5" max="5" width="47.88671875" style="17"/>
+    <col min="1" max="1" width="11.33203125" style="11"/>
+    <col min="2" max="2" width="10" style="11"/>
+    <col min="3" max="3" width="75" style="52"/>
+    <col min="4" max="4" width="53.5546875" style="52"/>
+    <col min="5" max="5" width="48.6640625" style="52"/>
+    <col min="6" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>59</v>
+      <c r="E1" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>265</v>
+      <c r="C2" s="54" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B19" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>266</v>
+      <c r="C3" s="54" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>267</v>
+      <c r="C4" s="54" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>268</v>
+      <c r="C5" s="54" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>269</v>
+      <c r="C6" s="54" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>270</v>
+      <c r="C7" s="54" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>271</v>
+      <c r="C8" s="54" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>272</v>
+      <c r="C9" s="54" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>273</v>
+      <c r="C10" s="54" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>274</v>
+      <c r="C11" s="54" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>275</v>
+      <c r="C12" s="54" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>276</v>
+      <c r="C13" s="54" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>277</v>
+      <c r="C14" s="54" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>278</v>
+      <c r="C15" s="54" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C16" s="54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>280</v>
+      <c r="C17" s="54" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>281</v>
+      <c r="C18" s="54" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>177</v>
+      <c r="A19" s="49" t="s">
+        <v>175</v>
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>282</v>
+      <c r="C19" s="54" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2644,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2653,202 +2670,203 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="11"/>
-    <col min="2" max="2" width="9.88671875" style="11"/>
-    <col min="3" max="3" width="73.77734375" style="17"/>
-    <col min="4" max="4" width="52.6640625" style="17"/>
-    <col min="5" max="5" width="47.88671875" style="17"/>
+    <col min="1" max="1" width="11.33203125" style="11"/>
+    <col min="2" max="2" width="10" style="11"/>
+    <col min="3" max="3" width="75" style="52"/>
+    <col min="4" max="4" width="53.5546875" style="52"/>
+    <col min="5" max="5" width="48.6640625" style="52"/>
+    <col min="6" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>59</v>
+      <c r="E1" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>283</v>
+      <c r="C2" s="54" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B12" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>284</v>
+      <c r="C3" s="54" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>285</v>
+      <c r="C4" s="54" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>286</v>
+      <c r="C5" s="54" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>287</v>
+      <c r="C6" s="54" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>288</v>
+      <c r="C7" s="54" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>289</v>
+      <c r="C8" s="54" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>290</v>
+      <c r="C9" s="54" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>291</v>
+      <c r="C10" s="54" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>292</v>
+      <c r="C11" s="54" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>293</v>
+      <c r="C12" s="54" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B13" s="11">
         <v>13</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>294</v>
+      <c r="C13" s="54" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="11">
         <v>14</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>295</v>
+      <c r="C14" s="54" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15"/>
-      <c r="C15" s="19"/>
+      <c r="C15" s="54"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="54"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17"/>
-      <c r="C17" s="19"/>
+      <c r="C17" s="54"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18"/>
-      <c r="C18" s="19"/>
+      <c r="C18" s="54"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="49"/>
+      <c r="C19" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -2861,7 +2879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -2870,406 +2888,407 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="11"/>
-    <col min="2" max="2" width="18.21875" style="11"/>
-    <col min="3" max="3" width="10.88671875" style="11"/>
-    <col min="4" max="4" width="77.88671875" style="17"/>
-    <col min="5" max="5" width="52.6640625" style="17"/>
-    <col min="6" max="6" width="43.77734375" style="17"/>
+    <col min="1" max="1" width="11" style="11"/>
+    <col min="2" max="2" width="18.44140625" style="11"/>
+    <col min="3" max="3" width="11" style="11"/>
+    <col min="4" max="4" width="79.109375" style="52"/>
+    <col min="5" max="5" width="53.5546875" style="52"/>
+    <col min="6" max="6" width="44.44140625" style="52"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>54</v>
+      <c r="A1" s="20" t="s">
+        <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>59</v>
+      <c r="F1" s="53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>296</v>
+      <c r="A2" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>298</v>
+      <c r="D2" s="54" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>296</v>
+      <c r="A3" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:C26" si="0">SUM(C2+1)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D4" s="19" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5" s="19" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="19" t="s">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D8" s="19" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C9" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D10" s="19" t="s">
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D11" s="19" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C12" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D12" s="19" t="s">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="19" t="s">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C14" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D14" s="19" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D15" s="19" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="54" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C16" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D16" s="19" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" s="11" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D19" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D18" s="19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D20" s="54" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D19" s="19" t="s">
+    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D21" s="54" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20" s="11">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D20" s="19" t="s">
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="54" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D21" s="19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="11">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="C23" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D23" s="54" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B23" s="11" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D24" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="C23" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D23" s="19" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C24" s="11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C25" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="54" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B25" s="11" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D26" s="54" t="s">
         <v>327</v>
-      </c>
-      <c r="C25" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="11">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3279,293 +3298,294 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="11"/>
-    <col min="2" max="2" width="21.109375" style="11"/>
-    <col min="3" max="3" width="9.88671875" style="11"/>
-    <col min="4" max="4" width="73.77734375" style="34"/>
-    <col min="5" max="5" width="52.6640625" style="34"/>
-    <col min="6" max="6" width="43.77734375" style="34"/>
+    <col min="1" max="1" width="13.77734375" style="11"/>
+    <col min="2" max="2" width="21.33203125" style="11"/>
+    <col min="3" max="3" width="10" style="11"/>
+    <col min="4" max="4" width="75" style="55"/>
+    <col min="5" max="5" width="53.5546875" style="55"/>
+    <col min="6" max="6" width="44.44140625" style="55"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="35" t="s">
-        <v>59</v>
+      <c r="F1" s="56" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>331</v>
+      <c r="D2" s="57" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:C18" si="0">SUM(C2+1)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="36" t="s">
-        <v>332</v>
+      <c r="D3" s="57" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C4" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>333</v>
+      <c r="D4" s="57" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>334</v>
+      <c r="D5" s="57" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>335</v>
+      <c r="D6" s="57" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>336</v>
+      <c r="D7" s="57" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>337</v>
+      <c r="D8" s="57" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>338</v>
+      <c r="D9" s="57" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>339</v>
+      <c r="D10" s="57" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>340</v>
+      <c r="D11" s="57" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>342</v>
+      <c r="D12" s="57" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="57" t="s">
         <v>341</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>345</v>
+      <c r="D14" s="57" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="57" t="s">
         <v>344</v>
-      </c>
-      <c r="C15" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>347</v>
+      <c r="D16" s="57" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>348</v>
+      <c r="D17" s="57" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="36" t="s">
-        <v>349</v>
+      <c r="D18" s="57" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3575,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3584,290 +3604,291 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11"/>
-    <col min="2" max="2" width="20.77734375" style="11"/>
-    <col min="3" max="3" width="11.6640625" style="11"/>
-    <col min="4" max="4" width="79.109375" style="17"/>
-    <col min="5" max="5" width="52.6640625" style="17"/>
-    <col min="6" max="6" width="43.77734375" style="17"/>
+    <col min="1" max="1" width="17.6640625" style="11"/>
+    <col min="2" max="2" width="21.109375" style="11"/>
+    <col min="3" max="3" width="11.77734375" style="11"/>
+    <col min="4" max="4" width="80.44140625" style="52"/>
+    <col min="5" max="5" width="53.5546875" style="52"/>
+    <col min="6" max="6" width="44.44140625" style="52"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="31">
+      <c r="F1" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="49">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="D2" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>350</v>
+      <c r="A3" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>348</v>
       </c>
       <c r="C3" s="11">
         <f t="shared" ref="C3:C18" si="0">SUM(C2+1)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="58" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D4" s="19" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="11">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5" s="19" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="11">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C7" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="11" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="C8" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="54" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="11" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="C8" s="11">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D8" s="19" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="54" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C9" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="54" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D10" s="19" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C11" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="C12" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="54" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="11" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C12" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="54" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="19" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C14" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="C15" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="11" t="s">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D15" s="19" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="54" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C16" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D16" s="19" t="s">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="54" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C17" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="C18" s="11">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3881,49 +3902,42 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.6640625"/>
-    <col min="2" max="2" width="31.6640625"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="1024" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="10" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3933,314 +3947,324 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:A58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:A59"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.21875" style="12"/>
+    <col min="1" max="1" width="99.88671875" style="12"/>
+    <col min="2" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="59" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="67" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="64" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="62" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="62" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="62" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="62" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="40" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="62" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="62" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="62" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="62" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="65" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="44" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="62" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="62" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="62" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="62" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="67" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="62" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="67" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="62" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="67" t="s">
-        <v>423</v>
-      </c>
-    </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="62" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="62" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="62" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="62" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="62" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="62" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="67" t="s">
+      <c r="A55" s="62" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="62" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="62" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="67" t="s">
+      <c r="A58" s="62" t="s">
         <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="62" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0E00-000004000000}"/>
-    <hyperlink ref="A12" r:id="rId6" xr:uid="{00000000-0004-0000-0E00-000005000000}"/>
-    <hyperlink ref="A16" r:id="rId7" xr:uid="{00000000-0004-0000-0E00-000006000000}"/>
-    <hyperlink ref="A17" r:id="rId8" xr:uid="{00000000-0004-0000-0E00-000007000000}"/>
-    <hyperlink ref="A18" r:id="rId9" xr:uid="{00000000-0004-0000-0E00-000008000000}"/>
-    <hyperlink ref="A19" r:id="rId10" xr:uid="{00000000-0004-0000-0E00-000009000000}"/>
-    <hyperlink ref="A23" r:id="rId11" xr:uid="{00000000-0004-0000-0E00-00000A000000}"/>
-    <hyperlink ref="A27" r:id="rId12" xr:uid="{00000000-0004-0000-0E00-00000B000000}"/>
-    <hyperlink ref="A28" r:id="rId13" xr:uid="{00000000-0004-0000-0E00-00000C000000}"/>
-    <hyperlink ref="A29" r:id="rId14" xr:uid="{00000000-0004-0000-0E00-00000D000000}"/>
-    <hyperlink ref="A30" r:id="rId15" xr:uid="{00000000-0004-0000-0E00-00000E000000}"/>
-    <hyperlink ref="A31" r:id="rId16" xr:uid="{00000000-0004-0000-0E00-00000F000000}"/>
-    <hyperlink ref="A32" r:id="rId17" xr:uid="{00000000-0004-0000-0E00-000010000000}"/>
-    <hyperlink ref="A33" r:id="rId18" xr:uid="{00000000-0004-0000-0E00-000011000000}"/>
-    <hyperlink ref="A34" r:id="rId19" xr:uid="{00000000-0004-0000-0E00-000012000000}"/>
-    <hyperlink ref="A38" r:id="rId20" xr:uid="{00000000-0004-0000-0E00-000013000000}"/>
-    <hyperlink ref="A39" r:id="rId21" xr:uid="{00000000-0004-0000-0E00-000014000000}"/>
-    <hyperlink ref="A40" r:id="rId22" xr:uid="{00000000-0004-0000-0E00-000015000000}"/>
-    <hyperlink ref="A41" r:id="rId23" xr:uid="{00000000-0004-0000-0E00-000016000000}"/>
-    <hyperlink ref="A45" r:id="rId24" xr:uid="{00000000-0004-0000-0E00-000017000000}"/>
-    <hyperlink ref="A46" r:id="rId25" xr:uid="{00000000-0004-0000-0E00-000018000000}"/>
-    <hyperlink ref="A47" r:id="rId26" xr:uid="{00000000-0004-0000-0E00-000019000000}"/>
-    <hyperlink ref="A48" r:id="rId27" xr:uid="{00000000-0004-0000-0E00-00001A000000}"/>
-    <hyperlink ref="A49" r:id="rId28" xr:uid="{00000000-0004-0000-0E00-00001B000000}"/>
-    <hyperlink ref="A50" r:id="rId29" xr:uid="{00000000-0004-0000-0E00-00001C000000}"/>
-    <hyperlink ref="A51" r:id="rId30" xr:uid="{00000000-0004-0000-0E00-00001D000000}"/>
-    <hyperlink ref="A52" r:id="rId31" xr:uid="{00000000-0004-0000-0E00-00001E000000}"/>
-    <hyperlink ref="A53" r:id="rId32" xr:uid="{00000000-0004-0000-0E00-00001F000000}"/>
-    <hyperlink ref="A54" r:id="rId33" xr:uid="{00000000-0004-0000-0E00-000020000000}"/>
-    <hyperlink ref="A55" r:id="rId34" xr:uid="{00000000-0004-0000-0E00-000021000000}"/>
-    <hyperlink ref="A56" r:id="rId35" xr:uid="{00000000-0004-0000-0E00-000022000000}"/>
-    <hyperlink ref="A57" r:id="rId36" xr:uid="{00000000-0004-0000-0E00-000023000000}"/>
-    <hyperlink ref="A58" r:id="rId37" xr:uid="{00000000-0004-0000-0E00-000024000000}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="A18" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="A19" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="A20" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
+    <hyperlink ref="A28" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
+    <hyperlink ref="A29" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
+    <hyperlink ref="A30" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
+    <hyperlink ref="A31" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
+    <hyperlink ref="A32" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
+    <hyperlink ref="A33" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
+    <hyperlink ref="A34" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
+    <hyperlink ref="A35" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
+    <hyperlink ref="A39" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
+    <hyperlink ref="A40" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
+    <hyperlink ref="A41" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
+    <hyperlink ref="A42" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
+    <hyperlink ref="A46" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
+    <hyperlink ref="A47" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
+    <hyperlink ref="A48" r:id="rId27" xr:uid="{00000000-0004-0000-0F00-00001A000000}"/>
+    <hyperlink ref="A49" r:id="rId28" xr:uid="{00000000-0004-0000-0F00-00001B000000}"/>
+    <hyperlink ref="A50" r:id="rId29" xr:uid="{00000000-0004-0000-0F00-00001C000000}"/>
+    <hyperlink ref="A51" r:id="rId30" xr:uid="{00000000-0004-0000-0F00-00001D000000}"/>
+    <hyperlink ref="A52" r:id="rId31" xr:uid="{00000000-0004-0000-0F00-00001E000000}"/>
+    <hyperlink ref="A53" r:id="rId32" xr:uid="{00000000-0004-0000-0F00-00001F000000}"/>
+    <hyperlink ref="A54" r:id="rId33" xr:uid="{00000000-0004-0000-0F00-000020000000}"/>
+    <hyperlink ref="A55" r:id="rId34" xr:uid="{00000000-0004-0000-0F00-000021000000}"/>
+    <hyperlink ref="A56" r:id="rId35" xr:uid="{00000000-0004-0000-0F00-000022000000}"/>
+    <hyperlink ref="A57" r:id="rId36" xr:uid="{00000000-0004-0000-0F00-000023000000}"/>
+    <hyperlink ref="A58" r:id="rId37" xr:uid="{00000000-0004-0000-0F00-000024000000}"/>
+    <hyperlink ref="A59" r:id="rId38" xr:uid="{00000000-0004-0000-0F00-000025000000}"/>
+    <hyperlink ref="A10" r:id="rId39" xr:uid="{63399E86-9EE8-4CCA-B978-23E6A3DFE05E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -4257,16 +4281,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="11"/>
-    <col min="2" max="2" width="71.77734375" style="12"/>
+    <col min="1" max="1" width="17.44140625" style="11"/>
+    <col min="2" max="2" width="73" style="12"/>
+    <col min="3" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4295,10 +4320,10 @@
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -4312,798 +4337,799 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="30"/>
-    <col min="2" max="2" width="9.44140625" style="30"/>
-    <col min="3" max="3" width="36.88671875" style="51"/>
-    <col min="4" max="4" width="73.77734375" style="50"/>
-    <col min="5" max="5" width="52.6640625" style="50"/>
-    <col min="6" max="6" width="43.77734375" style="50"/>
+    <col min="1" max="1" width="10.88671875" style="17"/>
+    <col min="2" max="2" width="9.5546875" style="17"/>
+    <col min="3" max="3" width="37.44140625" style="18"/>
+    <col min="4" max="4" width="75" style="19"/>
+    <col min="5" max="5" width="53.5546875" style="19"/>
+    <col min="6" max="6" width="44.44140625" style="19"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="E1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="F1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="17">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D2" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="30">
-        <v>1</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="17">
         <f t="shared" ref="B3:B47" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" s="30" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-    </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="55">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="D5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="52" t="s">
+      <c r="D6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-    </row>
-    <row r="6" spans="1:6" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="55">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="59" t="s">
+      <c r="D7" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="52" t="s">
+      <c r="D8" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="52" t="s">
+      <c r="D9" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" s="20" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="55">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="D10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="D11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:6" s="30" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="49" t="s">
+      <c r="D12" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="55">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="59" t="s">
+      <c r="D13" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-    </row>
-    <row r="13" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="55">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="56" t="s">
+      <c r="D14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="30">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="49" t="s">
+      <c r="D15" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="30">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="49" t="s">
+      <c r="D16" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-    </row>
-    <row r="16" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="30">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="49" t="s">
+      <c r="D17" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="30">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="52" t="s">
+      <c r="D18" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="30">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="49" t="s">
+      <c r="D19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="30">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="52" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D21" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="30">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="49" t="s">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-    </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="52" t="s">
+      <c r="D22" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="30">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="52" t="s">
+      <c r="D23" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="30">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="49" t="s">
+      <c r="D24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="30">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="52" t="s">
+      <c r="D25" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-    </row>
-    <row r="25" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="30">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="52" t="s">
+      <c r="D26" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="1:6" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="52" t="s">
+      <c r="D27" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:6" s="20" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="55">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C27" s="56" t="s">
+      <c r="D28" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C28" s="52" t="s">
+      <c r="D29" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="53" t="s">
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-    </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C29" s="52" t="s">
+      <c r="D30" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="17">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="52" t="s">
+      <c r="D31" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="53" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="17">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-    </row>
-    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="30">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="52" t="s">
+      <c r="D32" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="53" t="s">
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="30">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C32" s="49" t="s">
+      <c r="D33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="30">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C33" s="52" t="s">
+      <c r="D34" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="30">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C34" s="49" t="s">
+      <c r="D35" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="30">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C35" s="52" t="s">
+      <c r="D36" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" s="30" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="26">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-    </row>
-    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="30">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C36" s="49" t="s">
+      <c r="D37" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="17">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-    </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A37" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="55">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C37" s="56" t="s">
+      <c r="D38" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="17">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-    </row>
-    <row r="38" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="30">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C38" s="52" t="s">
+      <c r="D39" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" s="30" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-    </row>
-    <row r="39" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="30">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C39" s="52" t="s">
+      <c r="D40" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="53" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24"/>
+      <c r="B41" s="17">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-    </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A40" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="55">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C40" s="59" t="s">
+      <c r="D41" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="57" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="17">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58"/>
-    </row>
-    <row r="41" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="30">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C41" s="52" t="s">
+      <c r="D42" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="53" t="s">
+    </row>
+    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="17">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="30">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C42" s="52" t="s">
+      <c r="D43" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="53" t="s">
+    </row>
+    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="22" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="30">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C43" s="49" t="s">
+      <c r="D44" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="53" t="s">
+    </row>
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="30">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C44" s="52" t="s">
+      <c r="D45" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D44" s="53" t="s">
+    </row>
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="30">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C45" s="52" t="s">
+      <c r="D46" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="53" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="17">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="30">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C46" s="49" t="s">
+      <c r="D47" s="23" t="s">
         <v>148</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="30">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="53" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -5153,139 +5179,140 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="30"/>
-    <col min="2" max="2" width="51" style="54"/>
-    <col min="3" max="3" width="52.6640625" style="50"/>
-    <col min="4" max="4" width="47.88671875" style="50"/>
+    <col min="1" max="1" width="10" style="17"/>
+    <col min="2" max="2" width="51.88671875" style="24"/>
+    <col min="3" max="3" width="53.5546875" style="19"/>
+    <col min="4" max="4" width="48.6640625" style="19"/>
+    <col min="5" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="17">
         <f t="shared" ref="A3:A13" si="0">SUM(A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
-        <v>13</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5295,7 +5322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93633E1B-93C6-4B2E-A0C7-5E95D21DCFB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -5304,209 +5331,210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="21" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="21"/>
-    <col min="3" max="3" width="44.109375" style="66" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" style="34"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="44.77734375" style="35"/>
+    <col min="4" max="4" width="46.88671875" style="6"/>
+    <col min="5" max="5" width="42.5546875" style="6"/>
+    <col min="6" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="65">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="36">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B3" s="21">
+      <c r="A3" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="34">
         <f t="shared" ref="B3:B18" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="A4" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="34">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="49"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B6" s="21">
+      <c r="A6" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B8" s="21">
+      <c r="A8" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="49"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B9" s="21">
+      <c r="A9" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="49"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B10" s="21">
+      <c r="A10" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B11" s="21">
+      <c r="A11" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B12" s="21">
+      <c r="A12" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B13" s="21">
+      <c r="A13" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="49"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="A14" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="A15" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B16" s="21">
+      <c r="A16" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B17" s="21">
+      <c r="A17" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="49"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>421</v>
-      </c>
-      <c r="B18" s="21">
+      <c r="A18" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
@@ -5515,412 +5543,412 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="21"/>
-    <col min="2" max="2" width="19" style="22"/>
-    <col min="3" max="3" width="56.21875" style="23"/>
-    <col min="4" max="4" width="40" style="22"/>
-    <col min="5" max="5" width="38.77734375" style="22"/>
-    <col min="6" max="1025" width="8.6640625"/>
+    <col min="1" max="1" width="8.77734375" style="34"/>
+    <col min="2" max="2" width="19.33203125" style="39"/>
+    <col min="3" max="3" width="57.109375" style="40"/>
+    <col min="4" max="4" width="40.5546875" style="39"/>
+    <col min="5" max="5" width="39.44140625" style="39"/>
+    <col min="6" max="1025" width="8.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="3" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="34">
         <f t="shared" ref="A3:A33" si="0">SUM(A2+1)</f>
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="23" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="23" t="s">
+    <row r="6" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="23" t="s">
+    <row r="7" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="23" t="s">
+    <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    <row r="9" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="23" t="s">
+    <row r="10" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="23" t="s">
+    <row r="11" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="C11" s="40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
+    <row r="12" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="23" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="23" t="s">
+    <row r="14" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="23" t="s">
+    <row r="15" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="23" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="C16" s="40" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="23" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="23" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="23" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="23" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="34">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="23" t="s">
+    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="34">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="23" t="s">
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="34">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="23" t="s">
+    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="34">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="40" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="23" t="s">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="34">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="23" t="s">
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="34">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="23" t="s">
+      <c r="C26" s="40" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="21">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="22" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="34">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="23" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="34">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="39" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="23" t="s">
+      <c r="C28" s="40" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="22" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="34">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="23" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C29" s="23" t="s">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C30" s="23" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="21">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="C31" s="23" t="s">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="34">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="21">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -5930,230 +5958,231 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="63"/>
-    <col min="2" max="2" width="13.44140625" style="30"/>
-    <col min="3" max="3" width="73.77734375" style="50"/>
-    <col min="4" max="4" width="52.6640625" style="50"/>
-    <col min="5" max="5" width="47.88671875" style="50"/>
+    <col min="1" max="1" width="17.44140625" style="42"/>
+    <col min="2" max="2" width="13.5546875" style="17"/>
+    <col min="3" max="3" width="75" style="19"/>
+    <col min="4" max="4" width="53.5546875" style="19"/>
+    <col min="5" max="5" width="48.6640625" style="19"/>
+    <col min="6" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="27">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="45">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="17">
         <f t="shared" ref="B3:B17" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="30">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="30">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="30">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="30">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="30">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -6163,297 +6192,298 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="11"/>
-    <col min="2" max="2" width="20.77734375" style="47"/>
-    <col min="3" max="3" width="11.6640625" style="30"/>
-    <col min="4" max="4" width="79.109375" style="51"/>
-    <col min="5" max="5" width="52.6640625" style="50"/>
-    <col min="6" max="6" width="43.77734375" style="50"/>
+    <col min="1" max="1" width="17.6640625" style="11"/>
+    <col min="2" max="2" width="21.109375" style="47"/>
+    <col min="3" max="3" width="11.77734375" style="17"/>
+    <col min="4" max="4" width="80.44140625" style="18"/>
+    <col min="5" max="5" width="53.5546875" style="19"/>
+    <col min="6" max="6" width="44.44140625" style="19"/>
+    <col min="7" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="38" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="45">
+        <v>1</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="27">
-        <v>1</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="C3" s="17">
         <f t="shared" ref="C3:C18" si="0">SUM(C2+1)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B4" s="47" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D4" s="49" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D5" s="49" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D6" s="49" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="47" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D10" s="49" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C11" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="30">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="30">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="30">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="30">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D16" s="49" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="30">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="30">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6463,7 +6493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -6472,434 +6502,435 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="30"/>
-    <col min="2" max="2" width="9.88671875" style="30"/>
-    <col min="3" max="3" width="73.77734375" style="50"/>
-    <col min="4" max="4" width="52.6640625" style="50"/>
-    <col min="5" max="5" width="47.88671875" style="50"/>
+    <col min="1" max="1" width="11.33203125" style="17"/>
+    <col min="2" max="2" width="10" style="17"/>
+    <col min="3" max="3" width="75" style="19"/>
+    <col min="4" max="4" width="53.5546875" style="19"/>
+    <col min="5" max="5" width="48.6640625" style="19"/>
+    <col min="6" max="1025" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="30">
+      <c r="A2" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="17">
         <v>1</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="30">
+      <c r="A3" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="17">
         <f t="shared" ref="B3:B30" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="30">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C4" s="53" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" s="30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C5" s="53" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="30">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C6" s="53" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B7" s="30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C7" s="53" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B8" s="30">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C8" s="53" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B9" s="30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C9" s="53" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="53" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B11" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C11" s="53" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="30">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="53" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="53" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B15" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B14" s="30">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C14" s="53" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="30">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C15" s="53" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="30">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C16" s="53" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B17" s="30">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C17" s="53" t="s">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="30">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C18" s="53" t="s">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B19" s="30">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C19" s="53" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="30">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="53" t="s">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B22" s="17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="30">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="53" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B23" s="17">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="30">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="53" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="17">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="30">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C23" s="53" t="s">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" s="17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B24" s="30">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C24" s="53" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="17">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="30">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="53" t="s">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" s="17">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B26" s="30">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C26" s="53" t="s">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="30">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C27" s="53" t="s">
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="17">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B28" s="30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C28" s="53" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B29" s="30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>263</v>
-      </c>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="30">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/templates/Architecture_Review_Checklists.xlsx
+++ b/templates/Architecture_Review_Checklists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitRepository\git\Consulting.Project.Tools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606BA6C9-98DA-4B2B-B515-F77F4EC50480}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4C403C-0052-4F1F-8EB6-F66D6C4CFCD5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="989" firstSheet="12" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="23" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="491">
   <si>
     <t>Summary</t>
   </si>
@@ -1481,12 +1481,105 @@
   <si>
     <t>20.0 Operations</t>
   </si>
+  <si>
+    <t>https://accessibilityinsights.io/en/</t>
+  </si>
+  <si>
+    <t>Internationalization / Localization</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/International/</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/International/techniques/shortchecklist.html</t>
+  </si>
+  <si>
+    <t>http://www.rfc-editor.org/rfc/bcp/bcp47.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tags for Identifying Languages</t>
+  </si>
+  <si>
+    <t>http://www.iana.org/assignments/language-subtag-registry/language-subtag-registry</t>
+  </si>
+  <si>
+    <t>https://iso639-3.sil.org/code_tables/639/data</t>
+  </si>
+  <si>
+    <t>a combined view of the language code tables of ISO 639 parts 1, 2, and 3</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WCAG21/</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines (WCAG) 2.1</t>
+  </si>
+  <si>
+    <t>https://w3c.github.io/wcag/21/guidelines/</t>
+  </si>
+  <si>
+    <t>https://webaim.org/standards/wcag/checklist</t>
+  </si>
+  <si>
+    <t>WebAIM's WCAG 2 Checklist</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Web_Accessibility_Initiative#User_Agent_Accessibility_Guidelines_(UAAG)</t>
+  </si>
+  <si>
+    <t>W3C Web Accessibility Initiative</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Section_508_Amendment_to_the_Rehabilitation_Act_of_1973</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/standards-guidelines/wcag/</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines (WCAG) Overview (including WCAG 2.0 and WCAG 2.1.)</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/WAI/standards-guidelines/wcag/new-in-21/</t>
+  </si>
+  <si>
+    <t>What’s New in WCAG 2.1</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines (WCAG) 2.1, W3C Editor's Draft 09 August 2018</t>
+  </si>
+  <si>
+    <t>https://webaim.org/standards/508/checklist</t>
+  </si>
+  <si>
+    <t>Section 508 Checklist - Note: superseded by WCAG 2.0/2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://webaim.org/standards/wcag/ </t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines</t>
+  </si>
+  <si>
+    <t>https://webaim.org/articles/contrast/</t>
+  </si>
+  <si>
+    <t>Contrast and Color Accessibility, Understanding WCAG 2 Contrast and Color Requirements</t>
+  </si>
+  <si>
+    <t>https://webaim.org/projects/lowvisionsurvey2/</t>
+  </si>
+  <si>
+    <t>Survey of Users with Low Vision #2 Results</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1541,8 +1634,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1589,6 +1689,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1683,14 +1789,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="hair">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1700,7 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1710,7 +1816,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1721,7 +1827,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,17 +1848,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,16 +1863,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1781,15 +1880,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1805,35 +1900,35 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1846,36 +1941,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2261,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64BF8541-3430-48D2-99F0-A1A72F97AB08}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2270,120 +2364,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="51" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="37" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="37" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="37" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="37" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="37" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="37" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="37" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="37" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="37" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="37" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="37" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="37" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="37" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="37" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="37" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="37" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="37" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="37" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="37" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="37" t="s">
         <v>421</v>
       </c>
     </row>
@@ -2426,40 +2520,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>435</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>9.01</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2481,30 +2575,30 @@
   <cols>
     <col min="1" max="1" width="25.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="10" style="39"/>
-    <col min="4" max="4" width="75" style="37"/>
-    <col min="5" max="5" width="53.5703125" style="37"/>
-    <col min="6" max="6" width="44.42578125" style="37"/>
+    <col min="3" max="3" width="10" style="34"/>
+    <col min="4" max="4" width="75" style="21"/>
+    <col min="5" max="5" width="53.5703125" style="21"/>
+    <col min="6" max="6" width="44.42578125" style="21"/>
     <col min="7" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="40" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2515,10 +2609,10 @@
       <c r="B2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="34">
         <v>10.01</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>315</v>
       </c>
     </row>
@@ -2529,11 +2623,11 @@
       <c r="B3" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <f>SUM(C2+0.01)</f>
         <v>10.02</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="41" t="s">
         <v>316</v>
       </c>
     </row>
@@ -2544,11 +2638,11 @@
       <c r="B4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="34">
         <f t="shared" ref="C4:C18" si="0">SUM(C3+0.01)</f>
         <v>10.029999999999999</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="41" t="s">
         <v>317</v>
       </c>
     </row>
@@ -2559,11 +2653,11 @@
       <c r="B5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="34">
         <f t="shared" si="0"/>
         <v>10.039999999999999</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="41" t="s">
         <v>318</v>
       </c>
     </row>
@@ -2574,11 +2668,11 @@
       <c r="B6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <f t="shared" si="0"/>
         <v>10.049999999999999</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="41" t="s">
         <v>319</v>
       </c>
     </row>
@@ -2589,11 +2683,11 @@
       <c r="B7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
         <v>10.059999999999999</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="41" t="s">
         <v>320</v>
       </c>
     </row>
@@ -2604,11 +2698,11 @@
       <c r="B8" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>10.069999999999999</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="41" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2619,11 +2713,11 @@
       <c r="B9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>10.079999999999998</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="41" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2634,11 +2728,11 @@
       <c r="B10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>10.089999999999998</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="41" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2649,11 +2743,11 @@
       <c r="B11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>10.099999999999998</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="41" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2664,11 +2758,11 @@
       <c r="B12" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>10.109999999999998</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="41" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2679,11 +2773,11 @@
       <c r="B13" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>10.119999999999997</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="41" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2694,11 +2788,11 @@
       <c r="B14" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>10.129999999999997</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="41" t="s">
         <v>329</v>
       </c>
     </row>
@@ -2709,11 +2803,11 @@
       <c r="B15" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>10.139999999999997</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="41" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2724,11 +2818,11 @@
       <c r="B16" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
         <v>10.149999999999997</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="41" t="s">
         <v>331</v>
       </c>
     </row>
@@ -2739,11 +2833,11 @@
       <c r="B17" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>10.159999999999997</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="41" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2754,11 +2848,11 @@
       <c r="B18" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="34">
         <f t="shared" si="0"/>
         <v>10.169999999999996</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="41" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2781,40 +2875,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>11.01</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2834,40 +2928,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>12.01</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2889,7 +2983,7 @@
   <cols>
     <col min="1" max="1" width="22.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="14"/>
-    <col min="3" max="3" width="11" style="39"/>
+    <col min="3" max="3" width="11" style="34"/>
     <col min="4" max="4" width="79.140625" style="16"/>
     <col min="5" max="5" width="53.5703125" style="16"/>
     <col min="6" max="6" width="44.42578125" style="16"/>
@@ -2897,13 +2991,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -2923,10 +3017,10 @@
       <c r="B2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="34">
         <v>13.01</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2937,11 +3031,11 @@
       <c r="B3" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <f>SUM(C2+0.01)</f>
         <v>13.02</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2952,11 +3046,11 @@
       <c r="B4" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="34">
         <f t="shared" ref="C4:C26" si="0">SUM(C3+0.01)</f>
         <v>13.03</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="6" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2967,11 +3061,11 @@
       <c r="B5" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="34">
         <f t="shared" si="0"/>
         <v>13.04</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="6" t="s">
         <v>288</v>
       </c>
     </row>
@@ -2982,11 +3076,11 @@
       <c r="B6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <f t="shared" si="0"/>
         <v>13.049999999999999</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2997,11 +3091,11 @@
       <c r="B7" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
         <v>13.059999999999999</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3012,11 +3106,11 @@
       <c r="B8" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>13.069999999999999</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="6" t="s">
         <v>292</v>
       </c>
     </row>
@@ -3027,11 +3121,11 @@
       <c r="B9" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>13.079999999999998</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3042,11 +3136,11 @@
       <c r="B10" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>13.089999999999998</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3057,11 +3151,11 @@
       <c r="B11" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>13.099999999999998</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="6" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3072,11 +3166,11 @@
       <c r="B12" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>13.109999999999998</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="6" t="s">
         <v>297</v>
       </c>
     </row>
@@ -3087,11 +3181,11 @@
       <c r="B13" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>13.119999999999997</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="6" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3102,11 +3196,11 @@
       <c r="B14" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>13.129999999999997</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="6" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3117,11 +3211,11 @@
       <c r="B15" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>13.139999999999997</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="6" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3132,11 +3226,11 @@
       <c r="B16" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
         <v>13.149999999999997</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="6" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3147,11 +3241,11 @@
       <c r="B17" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>13.159999999999997</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="6" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3162,11 +3256,11 @@
       <c r="B18" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="34">
         <f t="shared" si="0"/>
         <v>13.169999999999996</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="6" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3177,11 +3271,11 @@
       <c r="B19" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="34">
         <f t="shared" si="0"/>
         <v>13.179999999999996</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="6" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3192,11 +3286,11 @@
       <c r="B20" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="34">
         <f t="shared" si="0"/>
         <v>13.189999999999996</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="6" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3207,11 +3301,11 @@
       <c r="B21" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="34">
         <f t="shared" si="0"/>
         <v>13.199999999999996</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="6" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3222,11 +3316,11 @@
       <c r="B22" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="34">
         <f t="shared" si="0"/>
         <v>13.209999999999996</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="6" t="s">
         <v>308</v>
       </c>
     </row>
@@ -3237,11 +3331,11 @@
       <c r="B23" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="34">
         <f t="shared" si="0"/>
         <v>13.219999999999995</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="6" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3252,11 +3346,11 @@
       <c r="B24" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="34">
         <f t="shared" si="0"/>
         <v>13.229999999999995</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="6" t="s">
         <v>311</v>
       </c>
     </row>
@@ -3267,11 +3361,11 @@
       <c r="B25" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="34">
         <f t="shared" si="0"/>
         <v>13.239999999999995</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="6" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3282,11 +3376,11 @@
       <c r="B26" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="34">
         <f t="shared" si="0"/>
         <v>13.249999999999995</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="6" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3309,40 +3403,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>14.01</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3371,7 +3465,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -3394,7 +3488,7 @@
       <c r="B2" s="14">
         <v>15.01</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3406,7 +3500,7 @@
         <f>SUM(B2+0.01)</f>
         <v>15.02</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="6" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3418,7 +3512,7 @@
         <f t="shared" ref="B4:B14" si="0">SUM(B3+0.01)</f>
         <v>15.03</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>271</v>
       </c>
     </row>
@@ -3430,7 +3524,7 @@
         <f t="shared" si="0"/>
         <v>15.04</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3442,7 +3536,7 @@
         <f t="shared" si="0"/>
         <v>15.049999999999999</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="6" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3454,7 +3548,7 @@
         <f t="shared" si="0"/>
         <v>15.059999999999999</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3466,7 +3560,7 @@
         <f t="shared" si="0"/>
         <v>15.069999999999999</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="6" t="s">
         <v>275</v>
       </c>
     </row>
@@ -3478,7 +3572,7 @@
         <f t="shared" si="0"/>
         <v>15.079999999999998</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3490,7 +3584,7 @@
         <f t="shared" si="0"/>
         <v>15.089999999999998</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3502,7 +3596,7 @@
         <f t="shared" si="0"/>
         <v>15.099999999999998</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="6" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3514,7 +3608,7 @@
         <f t="shared" si="0"/>
         <v>15.109999999999998</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>279</v>
       </c>
     </row>
@@ -3526,7 +3620,7 @@
         <f t="shared" si="0"/>
         <v>15.119999999999997</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="6" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3538,29 +3632,29 @@
         <f t="shared" si="0"/>
         <v>15.129999999999997</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="6" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="10"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="10"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="10"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="10"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="32"/>
+      <c r="C19" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3585,40 +3679,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>15.01</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3640,7 +3734,7 @@
   <cols>
     <col min="1" max="1" width="30.42578125" style="14" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="14"/>
-    <col min="3" max="3" width="11.7109375" style="39"/>
+    <col min="3" max="3" width="11.7109375" style="34"/>
     <col min="4" max="4" width="80.42578125" style="15"/>
     <col min="5" max="5" width="53.5703125" style="16"/>
     <col min="6" max="6" width="44.42578125" style="16"/>
@@ -3648,13 +3742,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -3667,259 +3761,259 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="39">
         <v>17.010000000000002</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <f>SUM(C2+0.01)</f>
         <v>17.020000000000003</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="34">
         <f t="shared" ref="C4:C18" si="0">SUM(C3+0.01)</f>
         <v>17.030000000000005</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="34">
         <f t="shared" si="0"/>
         <v>17.040000000000006</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <f t="shared" si="0"/>
         <v>17.050000000000008</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
         <v>17.060000000000009</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>17.070000000000011</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>17.080000000000013</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="20" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>17.090000000000014</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>17.100000000000016</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>17.110000000000017</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>17.120000000000019</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>17.13000000000002</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>17.140000000000022</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
         <v>17.150000000000023</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>17.160000000000025</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="32" t="s">
         <v>418</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="34">
         <f t="shared" si="0"/>
         <v>17.170000000000027</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3944,7 +4038,7 @@
   <cols>
     <col min="1" max="1" width="23.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="21.140625" style="14"/>
-    <col min="3" max="3" width="11.7109375" style="39"/>
+    <col min="3" max="3" width="11.7109375" style="34"/>
     <col min="4" max="4" width="80.42578125" style="16"/>
     <col min="5" max="5" width="53.5703125" style="16"/>
     <col min="6" max="6" width="44.42578125" style="16"/>
@@ -3952,13 +4046,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -3971,261 +4065,261 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:6" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="39">
         <v>18.010000000000002</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="34">
         <f>SUM(C2+0.01)</f>
         <v>18.020000000000003</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="34">
         <f t="shared" ref="C4:C18" si="0">SUM(C3+0.01)</f>
         <v>18.030000000000005</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="34">
         <f t="shared" si="0"/>
         <v>18.040000000000006</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="34">
         <f t="shared" si="0"/>
         <v>18.050000000000008</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="6" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
         <v>18.060000000000009</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>18.070000000000011</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="6" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>18.080000000000013</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="6" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>18.090000000000014</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>18.100000000000016</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="6" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>18.110000000000017</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="6" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>18.120000000000019</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="6" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>18.13000000000002</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="6" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>18.140000000000022</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
         <v>18.150000000000023</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="6" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>18.160000000000025</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="6" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="32" t="s">
         <v>419</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="34">
         <f t="shared" si="0"/>
         <v>18.170000000000027</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="6" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4258,7 +4352,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
     </row>
@@ -4605,7 +4699,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="34" customWidth="1"/>
     <col min="3" max="3" width="75" style="16"/>
     <col min="4" max="4" width="53.5703125" style="16"/>
     <col min="5" max="5" width="48.7109375" style="16"/>
@@ -4613,10 +4707,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -4633,406 +4727,406 @@
       <c r="A2" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="34">
         <v>19.010000000000002</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <f>SUM(B2+0.01)</f>
         <v>19.020000000000003</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B30" si="0">SUM(B3+0.01)</f>
         <v>19.030000000000005</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>19.040000000000006</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>19.050000000000008</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>19.060000000000009</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>19.070000000000011</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>19.080000000000013</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>19.090000000000014</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>19.100000000000016</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>19.110000000000017</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>19.120000000000019</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>19.13000000000002</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>19.140000000000022</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>19.150000000000023</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>19.160000000000025</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>19.170000000000027</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>19.180000000000028</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>19.19000000000003</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <f t="shared" si="0"/>
         <v>19.200000000000031</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="34">
         <f t="shared" si="0"/>
         <v>19.210000000000033</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="34">
         <f t="shared" si="0"/>
         <v>19.220000000000034</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="34">
         <f t="shared" si="0"/>
         <v>19.230000000000036</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="34">
         <f t="shared" si="0"/>
         <v>19.240000000000038</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="34">
         <f t="shared" si="0"/>
         <v>19.250000000000039</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="34">
         <f t="shared" si="0"/>
         <v>19.260000000000041</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="34">
         <f t="shared" si="0"/>
         <v>19.270000000000042</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="34">
         <f t="shared" si="0"/>
         <v>19.280000000000044</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>458</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="34">
         <f t="shared" si="0"/>
         <v>19.290000000000045</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5051,19 +5145,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="26"/>
+    <col min="1" max="1" width="23.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="36" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="20"/>
     <col min="4" max="4" width="46.85546875" style="6"/>
     <col min="5" max="5" width="42.5703125" style="6"/>
     <col min="6" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -5076,176 +5170,160 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="42">
         <v>20.010000000000002</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="36">
         <f>SUM(B2+0.01)</f>
         <v>20.020000000000003</v>
       </c>
-      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="36">
         <f t="shared" ref="B4:B18" si="0">SUM(B3+0.01)</f>
         <v>20.030000000000005</v>
       </c>
-      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <f t="shared" si="0"/>
         <v>20.040000000000006</v>
       </c>
-      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <f t="shared" si="0"/>
         <v>20.050000000000008</v>
       </c>
-      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <f t="shared" si="0"/>
         <v>20.060000000000009</v>
       </c>
-      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <f t="shared" si="0"/>
         <v>20.070000000000011</v>
       </c>
-      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <f t="shared" si="0"/>
         <v>20.080000000000013</v>
       </c>
-      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <f t="shared" si="0"/>
         <v>20.090000000000014</v>
       </c>
-      <c r="C10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="36">
         <f t="shared" si="0"/>
         <v>20.100000000000016</v>
       </c>
-      <c r="C11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <f t="shared" si="0"/>
         <v>20.110000000000017</v>
       </c>
-      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="36">
         <f t="shared" si="0"/>
         <v>20.120000000000019</v>
       </c>
-      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <f t="shared" si="0"/>
         <v>20.13000000000002</v>
       </c>
-      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="36">
         <f t="shared" si="0"/>
         <v>20.140000000000022</v>
       </c>
-      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <f t="shared" si="0"/>
         <v>20.150000000000023</v>
       </c>
-      <c r="C16" s="22"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="36">
         <f t="shared" si="0"/>
         <v>20.160000000000025</v>
       </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="36">
         <f t="shared" si="0"/>
         <v>20.170000000000027</v>
       </c>
-      <c r="C18" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5269,7 +5347,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5309,344 +5387,488 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="99.85546875" style="12"/>
-    <col min="2" max="1025" width="8.7109375"/>
+    <col min="1" max="1" width="99.85546875" style="10"/>
+    <col min="2" max="2" width="96.28515625" style="64" customWidth="1"/>
+    <col min="3" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="B2" s="56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+      <c r="B3" s="67"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="64" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="64" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>485</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>487</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>489</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="63"/>
+    </row>
+    <row r="25" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="68" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="B25" s="67"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+    </row>
+    <row r="29" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="B29" s="67"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="58" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="58" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="58" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+    </row>
+    <row r="36" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="65" t="s">
+      <c r="B36" s="67"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="59"/>
+    </row>
+    <row r="40" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="69" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="B40" s="67"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="58" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="58" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="58" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="65" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="58" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="58" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="58" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="58" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+    </row>
+    <row r="51" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="69" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65" t="s">
+      <c r="B51" s="67"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="58" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="58" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
+    <row r="58" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="69" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65" t="s">
+      <c r="B58" s="67"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="58" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="58" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="58" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="58" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="58" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="58" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="58" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="58" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="58" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="65" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="58" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="58" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="61"/>
+    <row r="75" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="B75" s="67"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="58" t="s">
+        <v>464</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="B80" t="s">
+        <v>468</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
-    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
-    <hyperlink ref="A8" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
-    <hyperlink ref="A14" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
-    <hyperlink ref="A18" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
-    <hyperlink ref="A19" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
-    <hyperlink ref="A20" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
-    <hyperlink ref="A21" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
-    <hyperlink ref="A25" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
-    <hyperlink ref="A29" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
-    <hyperlink ref="A30" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
-    <hyperlink ref="A31" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
-    <hyperlink ref="A32" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
-    <hyperlink ref="A33" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
-    <hyperlink ref="A34" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
-    <hyperlink ref="A35" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
-    <hyperlink ref="A36" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
-    <hyperlink ref="A40" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
-    <hyperlink ref="A41" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
-    <hyperlink ref="A42" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
-    <hyperlink ref="A43" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
-    <hyperlink ref="A47" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
-    <hyperlink ref="A48" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
-    <hyperlink ref="A49" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-00001A000000}"/>
-    <hyperlink ref="A50" r:id="rId27" xr:uid="{00000000-0004-0000-0F00-00001B000000}"/>
-    <hyperlink ref="A51" r:id="rId28" xr:uid="{00000000-0004-0000-0F00-00001C000000}"/>
-    <hyperlink ref="A52" r:id="rId29" xr:uid="{00000000-0004-0000-0F00-00001D000000}"/>
-    <hyperlink ref="A53" r:id="rId30" xr:uid="{00000000-0004-0000-0F00-00001E000000}"/>
-    <hyperlink ref="A54" r:id="rId31" xr:uid="{00000000-0004-0000-0F00-00001F000000}"/>
-    <hyperlink ref="A55" r:id="rId32" xr:uid="{00000000-0004-0000-0F00-000020000000}"/>
-    <hyperlink ref="A56" r:id="rId33" xr:uid="{00000000-0004-0000-0F00-000021000000}"/>
-    <hyperlink ref="A57" r:id="rId34" xr:uid="{00000000-0004-0000-0F00-000022000000}"/>
-    <hyperlink ref="A58" r:id="rId35" xr:uid="{00000000-0004-0000-0F00-000023000000}"/>
-    <hyperlink ref="A59" r:id="rId36" xr:uid="{00000000-0004-0000-0F00-000024000000}"/>
-    <hyperlink ref="A60" r:id="rId37" xr:uid="{00000000-0004-0000-0F00-000025000000}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{00000000-0004-0000-0F00-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{00000000-0004-0000-0F00-000004000000}"/>
+    <hyperlink ref="A26" r:id="rId6" xr:uid="{00000000-0004-0000-0F00-000006000000}"/>
+    <hyperlink ref="A30" r:id="rId7" xr:uid="{00000000-0004-0000-0F00-000007000000}"/>
+    <hyperlink ref="A31" r:id="rId8" xr:uid="{00000000-0004-0000-0F00-000008000000}"/>
+    <hyperlink ref="A32" r:id="rId9" xr:uid="{00000000-0004-0000-0F00-000009000000}"/>
+    <hyperlink ref="A33" r:id="rId10" xr:uid="{00000000-0004-0000-0F00-00000A000000}"/>
+    <hyperlink ref="A37" r:id="rId11" xr:uid="{00000000-0004-0000-0F00-00000B000000}"/>
+    <hyperlink ref="A41" r:id="rId12" xr:uid="{00000000-0004-0000-0F00-00000C000000}"/>
+    <hyperlink ref="A42" r:id="rId13" xr:uid="{00000000-0004-0000-0F00-00000D000000}"/>
+    <hyperlink ref="A43" r:id="rId14" xr:uid="{00000000-0004-0000-0F00-00000E000000}"/>
+    <hyperlink ref="A44" r:id="rId15" xr:uid="{00000000-0004-0000-0F00-00000F000000}"/>
+    <hyperlink ref="A45" r:id="rId16" xr:uid="{00000000-0004-0000-0F00-000010000000}"/>
+    <hyperlink ref="A46" r:id="rId17" xr:uid="{00000000-0004-0000-0F00-000011000000}"/>
+    <hyperlink ref="A47" r:id="rId18" xr:uid="{00000000-0004-0000-0F00-000012000000}"/>
+    <hyperlink ref="A48" r:id="rId19" xr:uid="{00000000-0004-0000-0F00-000013000000}"/>
+    <hyperlink ref="A52" r:id="rId20" xr:uid="{00000000-0004-0000-0F00-000014000000}"/>
+    <hyperlink ref="A53" r:id="rId21" xr:uid="{00000000-0004-0000-0F00-000015000000}"/>
+    <hyperlink ref="A54" r:id="rId22" xr:uid="{00000000-0004-0000-0F00-000016000000}"/>
+    <hyperlink ref="A55" r:id="rId23" xr:uid="{00000000-0004-0000-0F00-000017000000}"/>
+    <hyperlink ref="A59" r:id="rId24" xr:uid="{00000000-0004-0000-0F00-000018000000}"/>
+    <hyperlink ref="A60" r:id="rId25" xr:uid="{00000000-0004-0000-0F00-000019000000}"/>
+    <hyperlink ref="A61" r:id="rId26" xr:uid="{00000000-0004-0000-0F00-00001A000000}"/>
+    <hyperlink ref="A62" r:id="rId27" xr:uid="{00000000-0004-0000-0F00-00001B000000}"/>
+    <hyperlink ref="A63" r:id="rId28" xr:uid="{00000000-0004-0000-0F00-00001C000000}"/>
+    <hyperlink ref="A64" r:id="rId29" xr:uid="{00000000-0004-0000-0F00-00001D000000}"/>
+    <hyperlink ref="A65" r:id="rId30" xr:uid="{00000000-0004-0000-0F00-00001E000000}"/>
+    <hyperlink ref="A66" r:id="rId31" xr:uid="{00000000-0004-0000-0F00-00001F000000}"/>
+    <hyperlink ref="A67" r:id="rId32" xr:uid="{00000000-0004-0000-0F00-000020000000}"/>
+    <hyperlink ref="A68" r:id="rId33" xr:uid="{00000000-0004-0000-0F00-000021000000}"/>
+    <hyperlink ref="A69" r:id="rId34" xr:uid="{00000000-0004-0000-0F00-000022000000}"/>
+    <hyperlink ref="A70" r:id="rId35" xr:uid="{00000000-0004-0000-0F00-000023000000}"/>
+    <hyperlink ref="A71" r:id="rId36" xr:uid="{00000000-0004-0000-0F00-000024000000}"/>
+    <hyperlink ref="A72" r:id="rId37" xr:uid="{00000000-0004-0000-0F00-000025000000}"/>
     <hyperlink ref="A1" location="TOC!A1" display="Group (click for TOC)" xr:uid="{A939AC13-4E58-494D-9A10-ABF0E5EAE545}"/>
-    <hyperlink ref="A11" r:id="rId38" xr:uid="{84D3E302-ED47-40DC-88C3-358CFD336399}"/>
-    <hyperlink ref="A10" r:id="rId39" xr:uid="{63399E86-9EE8-4CCA-B978-23E6A3DFE05E}"/>
+    <hyperlink ref="A17" r:id="rId38" xr:uid="{84D3E302-ED47-40DC-88C3-358CFD336399}"/>
+    <hyperlink ref="A16" r:id="rId39" xr:uid="{63399E86-9EE8-4CCA-B978-23E6A3DFE05E}"/>
+    <hyperlink ref="A18" r:id="rId40" xr:uid="{5135DFA4-ACAE-4FD4-85EF-72CCBBF5D8F4}"/>
+    <hyperlink ref="A76" r:id="rId41" xr:uid="{6FC0CD9D-6E22-4F8A-829A-043F4A3AD11C}"/>
+    <hyperlink ref="A77" r:id="rId42" xr:uid="{83232C6D-C41F-493C-808C-48D11796C54B}"/>
+    <hyperlink ref="A78" r:id="rId43" xr:uid="{37E8AA82-142F-444C-84A6-FD1C9FC614E0}"/>
+    <hyperlink ref="A79" r:id="rId44" xr:uid="{9680DF94-0860-44B0-AE5C-D5A3F4F6347C}"/>
+    <hyperlink ref="A80" r:id="rId45" xr:uid="{19AD65E0-8B9F-4BB7-AFD5-CF17E217AA8B}"/>
+    <hyperlink ref="A8" r:id="rId46" xr:uid="{15875A16-A968-47C9-B024-DA8AEF15C0C5}"/>
+    <hyperlink ref="A9" r:id="rId47" xr:uid="{9C7B0421-60D2-46DF-B012-52CFCBDE36D1}"/>
+    <hyperlink ref="A20" r:id="rId48" xr:uid="{A4796D2A-3170-450D-B5EA-D235FC48634D}"/>
+    <hyperlink ref="A4" r:id="rId49" location="User_Agent_Accessibility_Guidelines_(UAAG)" xr:uid="{4EC415F6-36A6-4E3D-89B0-6823268987B9}"/>
+    <hyperlink ref="A14" r:id="rId50" xr:uid="{8FA69D77-2F10-4234-B507-0F106FACA7D4}"/>
+    <hyperlink ref="A7" r:id="rId51" xr:uid="{2EA76A8E-8DF9-4CDD-BDF9-8B2613DF0B52}"/>
+    <hyperlink ref="A6" r:id="rId52" xr:uid="{2FA9759F-795A-4E3B-A0CA-A5903382D644}"/>
+    <hyperlink ref="A15" r:id="rId53" xr:uid="{5E50A41D-5482-432B-9781-C2532A9F426B}"/>
+    <hyperlink ref="A19" r:id="rId54" xr:uid="{1E069B28-1279-46C7-9104-A78F82B72D2A}"/>
+    <hyperlink ref="A21" r:id="rId55" xr:uid="{A9314030-F214-4B12-BFCD-7149C6A88988}"/>
+    <hyperlink ref="A22" r:id="rId56" xr:uid="{DE24CCA9-C0B0-4769-A712-C0B4B92C26F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -5666,106 +5888,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="55" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="10"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="55" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
-      <c r="B10" s="21"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
-      <c r="B11" s="21"/>
+      <c r="B11" s="10"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
-      <c r="B13" s="21"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
-      <c r="B14" s="21"/>
+      <c r="B14" s="10"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
-      <c r="B16" s="21"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
-      <c r="B17" s="21"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
-      <c r="B18" s="21"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
-      <c r="B19" s="21"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
-      <c r="B21" s="21"/>
+      <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
-      <c r="B22" s="21"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5786,8 +6008,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="41"/>
+    <col min="1" max="1" width="19.28515625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="36"/>
     <col min="3" max="3" width="22.140625" style="15" customWidth="1"/>
     <col min="4" max="4" width="75" style="16"/>
     <col min="5" max="5" width="48.7109375" style="16" customWidth="1"/>
@@ -5796,11 +6018,11 @@
     <col min="8" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -5820,815 +6042,815 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B2" s="41">
+      <c r="B2" s="36">
         <v>1</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="36">
         <f t="shared" ref="B3:B47" si="0">SUM(B2+1)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" s="53" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" s="48" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" s="53" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="48" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7" s="53" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" s="53" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="48" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B12" s="49">
+      <c r="B12" s="44">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" s="55" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="48" t="s">
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7" s="50" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="44">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="36">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="36">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="36">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="36">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="36">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="36">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="36">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="36">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="36">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="36">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7" s="53" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7" s="48" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="44">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="36">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="36">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="36">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C30" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="36">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="36">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="36">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" s="53" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="E36" s="6"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:7" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="44">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="51" t="s">
+      <c r="D37" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
     </row>
     <row r="38" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="36">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C38" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="36">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7" s="53" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
+      <c r="E39" s="6"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:7" s="48" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
         <v>414</v>
       </c>
-      <c r="B40" s="49">
+      <c r="B40" s="44">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
     </row>
     <row r="41" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="36">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C41" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="36">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="36">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="36">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C44" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="36">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E45" s="20"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="36">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E46" s="20"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="36">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="20"/>
+      <c r="E47" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6678,19 +6900,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="39"/>
-    <col min="3" max="3" width="55.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="34"/>
+    <col min="3" max="3" width="55.5703125" style="10" customWidth="1"/>
     <col min="4" max="4" width="51.7109375" style="16" customWidth="1"/>
     <col min="5" max="5" width="48.7109375" style="16"/>
     <col min="6" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="35" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -6704,10 +6926,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="34">
         <v>4.01</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -6715,10 +6937,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <f>SUM(B2+0.01)</f>
         <v>4.0199999999999996</v>
       </c>
@@ -6727,10 +6949,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B14" si="0">SUM(B3+0.01)</f>
         <v>4.0299999999999994</v>
       </c>
@@ -6739,10 +6961,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>4.0399999999999991</v>
       </c>
@@ -6751,10 +6973,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>4.0499999999999989</v>
       </c>
@@ -6763,10 +6985,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>4.0599999999999987</v>
       </c>
@@ -6775,10 +6997,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>4.0699999999999985</v>
       </c>
@@ -6787,10 +7009,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>4.0799999999999983</v>
       </c>
@@ -6799,10 +7021,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>4.0899999999999981</v>
       </c>
@@ -6811,10 +7033,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>4.0999999999999979</v>
       </c>
@@ -6823,10 +7045,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>4.1099999999999977</v>
       </c>
@@ -6835,10 +7057,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>4.1199999999999974</v>
       </c>
@@ -6847,124 +7069,124 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>4.1299999999999972</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="10" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>4.1500000000000004</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <v>4.16</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <v>4.17</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <v>4.18</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <v>4.1900000000000004</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <v>4.2</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="34">
         <v>4.21</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="34">
         <v>4.22</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="34">
         <v>4.2300000000000004</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="10" t="s">
         <v>455</v>
       </c>
     </row>
@@ -6987,26 +7209,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" style="31"/>
-    <col min="5" max="5" width="40.5703125" style="30"/>
-    <col min="6" max="6" width="39.42578125" style="30"/>
+    <col min="1" max="1" width="20.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="28"/>
+    <col min="5" max="5" width="40.5703125" style="27"/>
+    <col min="6" max="6" width="39.42578125" style="27"/>
     <col min="7" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="29" t="s">
         <v>154</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -7017,481 +7239,481 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="36">
         <v>5.01</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="36">
         <f>SUM(C2+0.01)</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="36">
         <f t="shared" ref="C4:C33" si="0">SUM(C3+0.01)</f>
         <v>5.0299999999999994</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="36">
         <f t="shared" si="0"/>
         <v>5.0399999999999991</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="28" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <f t="shared" si="0"/>
         <v>5.0499999999999989</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="28" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="36">
         <f t="shared" si="0"/>
         <v>5.0599999999999987</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="28" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="36">
         <f t="shared" si="0"/>
         <v>5.0699999999999985</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="36">
         <f t="shared" si="0"/>
         <v>5.0799999999999983</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="36">
         <f t="shared" si="0"/>
         <v>5.0899999999999981</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="28" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="36">
         <f t="shared" si="0"/>
         <v>5.0999999999999979</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="36">
         <f t="shared" si="0"/>
         <v>5.1099999999999977</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="28" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="36">
         <f t="shared" si="0"/>
         <v>5.1199999999999974</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="28" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="36">
         <f t="shared" si="0"/>
         <v>5.1299999999999972</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="28" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="36">
         <f t="shared" si="0"/>
         <v>5.139999999999997</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="28" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="36">
         <f t="shared" si="0"/>
         <v>5.1499999999999968</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="28" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="36">
         <f t="shared" si="0"/>
         <v>5.1599999999999966</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="28" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="36">
         <f t="shared" si="0"/>
         <v>5.1699999999999964</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="28" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="36">
         <f t="shared" si="0"/>
         <v>5.1799999999999962</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="28" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="36">
         <f t="shared" si="0"/>
         <v>5.1899999999999959</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="28" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="36">
         <f t="shared" si="0"/>
         <v>5.1999999999999957</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="28" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="36">
         <f t="shared" si="0"/>
         <v>5.2099999999999955</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="28" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="36">
         <f t="shared" si="0"/>
         <v>5.2199999999999953</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="28" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="36">
         <f t="shared" si="0"/>
         <v>5.2299999999999951</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="28" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="36">
         <f t="shared" si="0"/>
         <v>5.2399999999999949</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="28" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="36">
         <f t="shared" si="0"/>
         <v>5.2499999999999947</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="28" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="36">
         <f t="shared" si="0"/>
         <v>5.2599999999999945</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="36">
         <f t="shared" si="0"/>
         <v>5.2699999999999942</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="28" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="36">
         <f t="shared" si="0"/>
         <v>5.279999999999994</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="28" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="36">
         <f t="shared" si="0"/>
         <v>5.2899999999999938</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="28" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="36">
         <f t="shared" si="0"/>
         <v>5.2999999999999936</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="28" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="36">
         <f t="shared" si="0"/>
         <v>5.3099999999999934</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="28" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="36">
         <f t="shared" si="0"/>
         <v>5.3199999999999932</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="28" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7514,8 +7736,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="39"/>
+    <col min="1" max="1" width="24.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="34"/>
     <col min="3" max="3" width="75" style="16"/>
     <col min="4" max="4" width="53.5703125" style="16"/>
     <col min="5" max="5" width="48.7109375" style="16"/>
@@ -7523,10 +7745,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -7539,24 +7761,24 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>6.01</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <f>SUM(B2+0.01)</f>
         <v>6.02</v>
       </c>
@@ -7565,10 +7787,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B17" si="0">SUM(B3+0.01)</f>
         <v>6.0299999999999994</v>
       </c>
@@ -7577,10 +7799,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>6.0399999999999991</v>
       </c>
@@ -7589,10 +7811,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>6.0499999999999989</v>
       </c>
@@ -7601,10 +7823,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>6.0599999999999987</v>
       </c>
@@ -7613,10 +7835,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>6.0699999999999985</v>
       </c>
@@ -7625,10 +7847,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>6.0799999999999983</v>
       </c>
@@ -7637,10 +7859,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>6.0899999999999981</v>
       </c>
@@ -7649,10 +7871,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>6.0999999999999979</v>
       </c>
@@ -7661,10 +7883,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>6.1099999999999977</v>
       </c>
@@ -7673,10 +7895,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>6.1199999999999974</v>
       </c>
@@ -7685,10 +7907,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>6.1299999999999972</v>
       </c>
@@ -7697,10 +7919,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>6.139999999999997</v>
       </c>
@@ -7709,10 +7931,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>6.1499999999999968</v>
       </c>
@@ -7721,10 +7943,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>6.1599999999999966</v>
       </c>
@@ -7752,7 +7974,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10" style="39"/>
+    <col min="2" max="2" width="10" style="34"/>
     <col min="3" max="3" width="75" style="16"/>
     <col min="4" max="4" width="53.5703125" style="16"/>
     <col min="5" max="5" width="48.7109375" style="16"/>
@@ -7760,10 +7982,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -7780,10 +8002,10 @@
       <c r="A2" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="34">
         <v>7.01</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7791,11 +8013,11 @@
       <c r="A3" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="34">
         <f>SUM(B2+0.01)</f>
         <v>7.02</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7803,11 +8025,11 @@
       <c r="A4" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="34">
         <f t="shared" ref="B4:B20" si="0">SUM(B3+0.01)</f>
         <v>7.0299999999999994</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="6" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7815,11 +8037,11 @@
       <c r="A5" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="34">
         <f t="shared" si="0"/>
         <v>7.0399999999999991</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="6" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7827,11 +8049,11 @@
       <c r="A6" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="34">
         <f t="shared" si="0"/>
         <v>7.0499999999999989</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7839,11 +8061,11 @@
       <c r="A7" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="34">
         <f t="shared" si="0"/>
         <v>7.0599999999999987</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="6" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7851,11 +8073,11 @@
       <c r="A8" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="shared" si="0"/>
         <v>7.0699999999999985</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="6" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7863,11 +8085,11 @@
       <c r="A9" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="34">
         <f t="shared" si="0"/>
         <v>7.0799999999999983</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="6" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7875,11 +8097,11 @@
       <c r="A10" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="34">
         <f t="shared" si="0"/>
         <v>7.0899999999999981</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7887,11 +8109,11 @@
       <c r="A11" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="34">
         <f t="shared" si="0"/>
         <v>7.0999999999999979</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7899,11 +8121,11 @@
       <c r="A12" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="shared" si="0"/>
         <v>7.1099999999999977</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7911,11 +8133,11 @@
       <c r="A13" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <f t="shared" si="0"/>
         <v>7.1199999999999974</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7923,11 +8145,11 @@
       <c r="A14" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <f t="shared" si="0"/>
         <v>7.1299999999999972</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="6" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7935,11 +8157,11 @@
       <c r="A15" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <f t="shared" si="0"/>
         <v>7.139999999999997</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="6" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7947,11 +8169,11 @@
       <c r="A16" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <f t="shared" si="0"/>
         <v>7.1499999999999968</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="6" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7959,11 +8181,11 @@
       <c r="A17" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="34">
         <f t="shared" si="0"/>
         <v>7.1599999999999966</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="6" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7971,11 +8193,11 @@
       <c r="A18" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="34">
         <f t="shared" si="0"/>
         <v>7.1699999999999964</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7983,11 +8205,11 @@
       <c r="A19" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="34">
         <f t="shared" si="0"/>
         <v>7.1799999999999962</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="6" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7995,7 +8217,7 @@
       <c r="A20" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <f t="shared" si="0"/>
         <v>7.1899999999999959</v>
       </c>
@@ -8022,40 +8244,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="74" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" style="74" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="74" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="60" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="61" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="39">
         <v>8.01</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
